--- a/Data/Moter_speed_and_seed_number/电机转速-挡板高度-出种数量.xlsx
+++ b/Data/Moter_speed_and_seed_number/电机转速-挡板高度-出种数量.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development-of-wheat-precision-seeding-control-system\Data\Moter_speed_and_seed_number\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60F0443-B9AE-45BF-B286-9F2D8451FED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E244BD5-5C08-45C0-BF32-E975C6E8804C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="转速5rpm" sheetId="1" r:id="rId1"/>
+    <sheet name="转速10rpm" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <r>
       <rPr>
@@ -93,7 +94,53 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>下降</t>
+      <t>挡板上边沿到种箱上边沿</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出种数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>mm</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>55</t>
     </r>
     <r>
       <rPr>
@@ -103,26 +150,60 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>70mm</t>
+      <t>mm</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挡板上边沿到种箱上边沿</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出种数量</t>
+    <t>50mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.2mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.1mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机转速/rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挡板下降高度/mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挡板上边沿到种箱上边沿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.1mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +249,46 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,12 +310,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,51 +616,940 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="B3" s="1">
         <f>20-5.5</f>
         <v>14.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>4</v>
       </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="1">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="1">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1">
+        <v>8</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1">
+        <v>9</v>
+      </c>
+      <c r="I18" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="1">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1">
+        <v>7</v>
+      </c>
+      <c r="H19" s="1">
+        <v>8</v>
+      </c>
+      <c r="I19" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C20" s="1">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1">
+        <v>8</v>
+      </c>
+      <c r="H20" s="1">
+        <v>8</v>
+      </c>
+      <c r="I20" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>9</v>
+      </c>
+      <c r="H21" s="1">
+        <v>9</v>
+      </c>
+      <c r="I21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1">
+        <v>9</v>
+      </c>
+      <c r="I22" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>11</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1">
+        <v>9</v>
+      </c>
+      <c r="I24" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>6</v>
+      </c>
+      <c r="G25" s="1">
+        <v>11</v>
+      </c>
+      <c r="H25" s="1">
+        <v>8</v>
+      </c>
+      <c r="I25" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="1">
+        <v>7</v>
+      </c>
+      <c r="G26" s="1">
+        <v>11</v>
+      </c>
+      <c r="H26" s="1">
+        <v>9</v>
+      </c>
+      <c r="I26" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>11</v>
+      </c>
+      <c r="H27" s="1">
+        <v>9</v>
+      </c>
+      <c r="I27" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G28" s="1">
+        <v>8</v>
+      </c>
+      <c r="H28" s="1">
+        <v>9</v>
+      </c>
+      <c r="I28" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G29" s="1">
+        <v>9</v>
+      </c>
+      <c r="H29" s="1">
+        <v>8</v>
+      </c>
+      <c r="I29" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G30" s="1">
+        <v>11</v>
+      </c>
+      <c r="H30" s="1">
+        <v>9</v>
+      </c>
+      <c r="I30" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G31" s="1">
+        <v>9</v>
+      </c>
+      <c r="H31" s="1">
+        <v>6</v>
+      </c>
+      <c r="I31" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G33" s="1">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G34" s="1">
+        <v>9</v>
+      </c>
+      <c r="H34" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G35" s="1">
+        <v>8</v>
+      </c>
+      <c r="H35" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G36" s="1">
+        <v>8</v>
+      </c>
+      <c r="H36" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G37" s="1">
+        <v>7</v>
+      </c>
+      <c r="H37" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G38" s="1">
+        <v>9</v>
+      </c>
+      <c r="H38" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H39" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H40" s="1">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4704FFC-B0E3-4E69-B52B-C37EFEA785FA}">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5">
+        <v>58</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5">
+        <v>15.2</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="6">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="6">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="6">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="6">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="6">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="6">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="6">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="6">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="6">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="6">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="6">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="6">
+        <v>6</v>
+      </c>
+      <c r="C22" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="6">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="6">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Moter_speed_and_seed_number/电机转速-挡板高度-出种数量.xlsx
+++ b/Data/Moter_speed_and_seed_number/电机转速-挡板高度-出种数量.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development-of-wheat-precision-seeding-control-system\Data\Moter_speed_and_seed_number\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D115010E-2FAD-49BA-BF75-6F1F43F7953C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EB432E-6037-42B1-B8F2-E3CF80BFD91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22046" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="转速5rpm" sheetId="1" r:id="rId1"/>
     <sheet name="转速10rpm" sheetId="2" r:id="rId2"/>
     <sheet name="转速15rpm" sheetId="3" r:id="rId3"/>
     <sheet name="转速20rpm" sheetId="4" r:id="rId4"/>
+    <sheet name="转速25rpm" sheetId="5" r:id="rId5"/>
+    <sheet name="转速30rpm" sheetId="6" r:id="rId6"/>
+    <sheet name="转速35rpm" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <r>
       <rPr>
@@ -121,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +211,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -229,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,12 +263,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -262,6 +273,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,13 +590,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="10">
         <v>5</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="16.3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -585,7 +611,7 @@
       <c r="D2" s="3">
         <v>62</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>64</v>
       </c>
     </row>
@@ -995,13 +1021,13 @@
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7">
-        <v>10</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="11">
+        <v>10</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -1016,7 +1042,7 @@
       <c r="C2" s="4">
         <v>63</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>64</v>
       </c>
       <c r="E2" s="4"/>
@@ -1393,35 +1419,35 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7">
-        <v>10</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="11">
+        <v>15</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>64</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>63</v>
       </c>
       <c r="E2" s="4"/>
@@ -1454,584 +1480,584 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="11">
-        <v>6</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="9">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="11">
-        <v>8</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="9">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="11">
-        <v>6</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="11">
-        <v>8</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="9">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="11">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="11">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="11">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="9">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="11">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="11">
-        <v>9</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="9">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="11">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="9">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="11">
-        <v>8</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="9">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="11">
-        <v>7</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="9">
+        <v>7</v>
+      </c>
+      <c r="C16" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="11">
-        <v>8</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="9">
+        <v>8</v>
+      </c>
+      <c r="C17" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="11">
-        <v>9</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="9">
+        <v>9</v>
+      </c>
+      <c r="C18" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="11">
-        <v>7</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B19" s="9">
+        <v>7</v>
+      </c>
+      <c r="C19" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="11">
-        <v>8</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B20" s="9">
+        <v>8</v>
+      </c>
+      <c r="C20" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="11">
-        <v>7</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B21" s="9">
+        <v>7</v>
+      </c>
+      <c r="C21" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="11">
-        <v>6</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="B22" s="9">
+        <v>6</v>
+      </c>
+      <c r="C22" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="11">
-        <v>7</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="B23" s="9">
+        <v>7</v>
+      </c>
+      <c r="C23" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="11">
-        <v>8</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="B24" s="9">
+        <v>8</v>
+      </c>
+      <c r="C24" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="11">
-        <v>8</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="B25" s="9">
+        <v>8</v>
+      </c>
+      <c r="C25" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="11">
-        <v>8</v>
-      </c>
-      <c r="C26" s="11">
+      <c r="B26" s="9">
+        <v>8</v>
+      </c>
+      <c r="C26" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="11">
-        <v>8</v>
-      </c>
-      <c r="C27" s="11">
+      <c r="B27" s="9">
+        <v>8</v>
+      </c>
+      <c r="C27" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="11">
-        <v>8</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="B28" s="9">
+        <v>8</v>
+      </c>
+      <c r="C28" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="11">
-        <v>8</v>
-      </c>
-      <c r="C29" s="11">
+      <c r="B29" s="9">
+        <v>8</v>
+      </c>
+      <c r="C29" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" s="11">
-        <v>7</v>
-      </c>
-      <c r="C30" s="11">
+      <c r="B30" s="9">
+        <v>7</v>
+      </c>
+      <c r="C30" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" s="11">
-        <v>7</v>
-      </c>
-      <c r="C31" s="11">
+      <c r="B31" s="9">
+        <v>7</v>
+      </c>
+      <c r="C31" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="11">
-        <v>8</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="B32" s="9">
+        <v>8</v>
+      </c>
+      <c r="C32" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="11">
-        <v>9</v>
-      </c>
-      <c r="C33" s="11">
+      <c r="B33" s="9">
+        <v>9</v>
+      </c>
+      <c r="C33" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="11">
-        <v>8</v>
-      </c>
-      <c r="C34" s="11">
+      <c r="B34" s="9">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B35" s="11">
-        <v>7</v>
-      </c>
-      <c r="C35" s="11">
+      <c r="B35" s="9">
+        <v>7</v>
+      </c>
+      <c r="C35" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="11">
-        <v>7</v>
-      </c>
-      <c r="C36" s="11">
+      <c r="B36" s="9">
+        <v>7</v>
+      </c>
+      <c r="C36" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B37" s="11">
-        <v>8</v>
-      </c>
-      <c r="C37" s="11">
+      <c r="B37" s="9">
+        <v>8</v>
+      </c>
+      <c r="C37" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B38" s="11">
-        <v>6</v>
-      </c>
-      <c r="C38" s="11">
+      <c r="B38" s="9">
+        <v>6</v>
+      </c>
+      <c r="C38" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B39" s="11">
-        <v>7</v>
-      </c>
-      <c r="C39" s="11">
+      <c r="B39" s="9">
+        <v>7</v>
+      </c>
+      <c r="C39" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B40" s="11">
-        <v>8</v>
-      </c>
-      <c r="C40" s="11">
+      <c r="B40" s="9">
+        <v>8</v>
+      </c>
+      <c r="C40" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B41" s="11">
-        <v>6</v>
-      </c>
-      <c r="C41" s="11">
+      <c r="B41" s="9">
+        <v>6</v>
+      </c>
+      <c r="C41" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B42" s="11">
-        <v>7</v>
-      </c>
-      <c r="C42" s="11">
+      <c r="B42" s="9">
+        <v>7</v>
+      </c>
+      <c r="C42" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="11">
-        <v>8</v>
-      </c>
-      <c r="C43" s="11">
+      <c r="B43" s="9">
+        <v>8</v>
+      </c>
+      <c r="C43" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="11">
-        <v>8</v>
-      </c>
-      <c r="C44" s="11">
+      <c r="B44" s="9">
+        <v>8</v>
+      </c>
+      <c r="C44" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="11">
-        <v>6</v>
-      </c>
-      <c r="C45" s="11">
+      <c r="B45" s="9">
+        <v>6</v>
+      </c>
+      <c r="C45" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="11">
-        <v>8</v>
-      </c>
-      <c r="C46" s="11">
+      <c r="B46" s="9">
+        <v>8</v>
+      </c>
+      <c r="C46" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="11">
-        <v>6</v>
-      </c>
-      <c r="C47" s="11">
+      <c r="B47" s="9">
+        <v>6</v>
+      </c>
+      <c r="C47" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B48" s="11">
-        <v>8</v>
-      </c>
-      <c r="C48" s="11">
+      <c r="B48" s="9">
+        <v>8</v>
+      </c>
+      <c r="C48" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B49" s="11">
-        <v>8</v>
-      </c>
-      <c r="C49" s="11">
+      <c r="B49" s="9">
+        <v>8</v>
+      </c>
+      <c r="C49" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B50" s="11">
-        <v>8</v>
-      </c>
-      <c r="C50" s="11">
+      <c r="B50" s="9">
+        <v>8</v>
+      </c>
+      <c r="C50" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="11">
-        <v>8</v>
-      </c>
-      <c r="C51" s="11">
+      <c r="B51" s="9">
+        <v>8</v>
+      </c>
+      <c r="C51" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B52" s="11">
-        <v>8</v>
-      </c>
-      <c r="C52" s="11">
+      <c r="B52" s="9">
+        <v>8</v>
+      </c>
+      <c r="C52" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B53" s="11">
-        <v>8</v>
-      </c>
-      <c r="C53" s="11">
+      <c r="B53" s="9">
+        <v>8</v>
+      </c>
+      <c r="C53" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B54" s="11">
-        <v>9</v>
-      </c>
-      <c r="C54" s="11">
+      <c r="B54" s="9">
+        <v>9</v>
+      </c>
+      <c r="C54" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B55" s="11">
-        <v>8</v>
-      </c>
-      <c r="C55" s="11">
+      <c r="B55" s="9">
+        <v>8</v>
+      </c>
+      <c r="C55" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B56" s="11">
-        <v>8</v>
-      </c>
-      <c r="C56" s="11">
+      <c r="B56" s="9">
+        <v>8</v>
+      </c>
+      <c r="C56" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B57" s="11">
-        <v>7</v>
-      </c>
-      <c r="C57" s="11">
+      <c r="B57" s="9">
+        <v>7</v>
+      </c>
+      <c r="C57" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B58" s="11">
-        <v>8</v>
-      </c>
-      <c r="C58" s="11">
+      <c r="B58" s="9">
+        <v>8</v>
+      </c>
+      <c r="C58" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B59" s="11">
-        <v>7</v>
-      </c>
-      <c r="C59" s="11">
+      <c r="B59" s="9">
+        <v>7</v>
+      </c>
+      <c r="C59" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B60" s="11">
-        <v>8</v>
-      </c>
-      <c r="C60" s="11">
+      <c r="B60" s="9">
+        <v>8</v>
+      </c>
+      <c r="C60" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B61" s="11">
-        <v>8</v>
-      </c>
-      <c r="C61" s="11">
+      <c r="B61" s="9">
+        <v>8</v>
+      </c>
+      <c r="C61" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B62" s="11">
-        <v>7</v>
-      </c>
-      <c r="C62" s="11">
+      <c r="B62" s="9">
+        <v>7</v>
+      </c>
+      <c r="C62" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B63" s="11">
-        <v>8</v>
-      </c>
-      <c r="C63" s="11">
+      <c r="B63" s="9">
+        <v>8</v>
+      </c>
+      <c r="C63" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C64" s="11">
+      <c r="C64" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C65" s="11">
+      <c r="C65" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C66" s="11">
+      <c r="C66" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C67" s="11">
+      <c r="C67" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C68" s="11">
+      <c r="C68" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C69" s="11">
+      <c r="C69" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C70" s="11">
+      <c r="C70" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C71" s="11">
+      <c r="C71" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C72" s="11">
+      <c r="C72" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C73" s="11">
+      <c r="C73" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C74" s="11">
+      <c r="C74" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C75" s="11">
+      <c r="C75" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C76" s="11">
+      <c r="C76" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C77" s="11">
+      <c r="C77" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C78" s="11">
+      <c r="C78" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C79" s="11">
+      <c r="C79" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C80" s="11">
+      <c r="C80" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C81" s="11">
+      <c r="C81" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C82" s="11">
+      <c r="C82" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C83" s="11">
+      <c r="C83" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C84" s="11">
+      <c r="C84" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C85" s="11">
+      <c r="C85" s="9">
         <v>7</v>
       </c>
     </row>
@@ -2046,36 +2072,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906CCFEC-4289-465F-923F-55BF229980DF}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7">
-        <v>10</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="11">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>63</v>
+      </c>
+      <c r="C2" s="9">
+        <v>64</v>
+      </c>
+      <c r="D2" s="9">
+        <v>62</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -2094,187 +2126,2729 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="11">
-        <v>9</v>
+      <c r="B5" s="9">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="11">
-        <v>7</v>
+      <c r="B6" s="9">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="11">
+      <c r="B7" s="9">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="11">
+      <c r="B8" s="9">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="11">
-        <v>7</v>
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="11">
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="11">
-        <v>7</v>
+      <c r="B11" s="9">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="11">
-        <v>8</v>
+      <c r="B12" s="9">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="11">
-        <v>6</v>
+      <c r="B13" s="9">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="11">
-        <v>8</v>
+      <c r="B14" s="9">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="11">
-        <v>7</v>
+      <c r="B15" s="9">
+        <v>7</v>
+      </c>
+      <c r="C15" s="9">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="11">
-        <v>8</v>
+      <c r="B16" s="9">
+        <v>8</v>
+      </c>
+      <c r="C16" s="9">
+        <v>7</v>
+      </c>
+      <c r="D16" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="9">
+        <v>8</v>
+      </c>
+      <c r="C17" s="9">
+        <v>7</v>
+      </c>
+      <c r="D17" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="9">
+        <v>8</v>
+      </c>
+      <c r="C18" s="9">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="9">
+        <v>7</v>
+      </c>
+      <c r="C19" s="9">
+        <v>8</v>
+      </c>
+      <c r="D19" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="9">
+        <v>7</v>
+      </c>
+      <c r="C20" s="9">
+        <v>8</v>
+      </c>
+      <c r="D20" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="9">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9">
+        <v>9</v>
+      </c>
+      <c r="D21" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="9">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="9">
+        <v>8</v>
+      </c>
+      <c r="C23" s="9">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="9">
+        <v>8</v>
+      </c>
+      <c r="C24" s="9">
+        <v>8</v>
+      </c>
+      <c r="D24" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="9">
+        <v>9</v>
+      </c>
+      <c r="C25" s="9">
+        <v>8</v>
+      </c>
+      <c r="D25" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="9">
+        <v>7</v>
+      </c>
+      <c r="C26" s="9">
+        <v>9</v>
+      </c>
+      <c r="D26" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="9">
+        <v>7</v>
+      </c>
+      <c r="C27" s="9">
+        <v>6</v>
+      </c>
+      <c r="D27" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="9">
+        <v>7</v>
+      </c>
+      <c r="C28" s="9">
+        <v>7</v>
+      </c>
+      <c r="D28" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="9">
+        <v>7</v>
+      </c>
+      <c r="C29" s="9">
+        <v>8</v>
+      </c>
+      <c r="D29" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="9">
+        <v>7</v>
+      </c>
+      <c r="C30" s="9">
+        <v>5</v>
+      </c>
+      <c r="D30" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="9">
+        <v>9</v>
+      </c>
+      <c r="C31" s="9">
+        <v>6</v>
+      </c>
+      <c r="D31" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="9">
+        <v>7</v>
+      </c>
+      <c r="C32" s="9">
+        <v>6</v>
+      </c>
+      <c r="D32" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="9">
+        <v>8</v>
+      </c>
+      <c r="C33" s="9">
+        <v>6</v>
+      </c>
+      <c r="D33" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="9">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9">
+        <v>8</v>
+      </c>
+      <c r="D34" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="9">
+        <v>8</v>
+      </c>
+      <c r="C35" s="9">
+        <v>5</v>
+      </c>
+      <c r="D35" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="9">
+        <v>8</v>
+      </c>
+      <c r="C36" s="9">
+        <v>8</v>
+      </c>
+      <c r="D36" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="9">
+        <v>9</v>
+      </c>
+      <c r="C37" s="9">
+        <v>8</v>
+      </c>
+      <c r="D37" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="9">
+        <v>8</v>
+      </c>
+      <c r="C38" s="9">
+        <v>7</v>
+      </c>
+      <c r="D38" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="9">
+        <v>7</v>
+      </c>
+      <c r="C39" s="9">
+        <v>6</v>
+      </c>
+      <c r="D39" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="9">
+        <v>9</v>
+      </c>
+      <c r="C40" s="9">
+        <v>7</v>
+      </c>
+      <c r="D40" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="9">
+        <v>8</v>
+      </c>
+      <c r="C41" s="9">
+        <v>8</v>
+      </c>
+      <c r="D41" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="9">
+        <v>7</v>
+      </c>
+      <c r="C42" s="9">
+        <v>7</v>
+      </c>
+      <c r="D42" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="9">
+        <v>7</v>
+      </c>
+      <c r="C43" s="9">
+        <v>6</v>
+      </c>
+      <c r="D43" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="9">
+        <v>9</v>
+      </c>
+      <c r="C44" s="9">
+        <v>7</v>
+      </c>
+      <c r="D44" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="9">
+        <v>8</v>
+      </c>
+      <c r="C45" s="9">
+        <v>8</v>
+      </c>
+      <c r="D45" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="9">
+        <v>8</v>
+      </c>
+      <c r="C46" s="9">
+        <v>8</v>
+      </c>
+      <c r="D46" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="9">
+        <v>9</v>
+      </c>
+      <c r="C47" s="9">
+        <v>6</v>
+      </c>
+      <c r="D47" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="9">
+        <v>9</v>
+      </c>
+      <c r="C48" s="9">
+        <v>7</v>
+      </c>
+      <c r="D48" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="9">
+        <v>8</v>
+      </c>
+      <c r="C49" s="9">
+        <v>8</v>
+      </c>
+      <c r="D49" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="9">
+        <v>8</v>
+      </c>
+      <c r="C50" s="9">
+        <v>5</v>
+      </c>
+      <c r="D50" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="9">
+        <v>9</v>
+      </c>
+      <c r="C51" s="9">
+        <v>7</v>
+      </c>
+      <c r="D51" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="9">
+        <v>7</v>
+      </c>
+      <c r="C52" s="9">
+        <v>8</v>
+      </c>
+      <c r="D52" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B53" s="9">
+        <v>9</v>
+      </c>
+      <c r="C53" s="9">
+        <v>7</v>
+      </c>
+      <c r="D53" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B54" s="9">
+        <v>9</v>
+      </c>
+      <c r="C54" s="9">
+        <v>7</v>
+      </c>
+      <c r="D54" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B55" s="9">
+        <v>8</v>
+      </c>
+      <c r="C55" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B56" s="9">
+        <v>8</v>
+      </c>
+      <c r="C56" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B57" s="9">
+        <v>8</v>
+      </c>
+      <c r="C57" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B58" s="9">
+        <v>8</v>
+      </c>
+      <c r="C58" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B59" s="9">
+        <v>8</v>
+      </c>
+      <c r="C59" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B60" s="9">
+        <v>8</v>
+      </c>
+      <c r="C60" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B61" s="9">
+        <v>8</v>
+      </c>
+      <c r="C61" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C62" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C63" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C64" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C65" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C66" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C67" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C68" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C69" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C70" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C71" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C72" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C73" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C74" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C75" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C76" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C77" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C78" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C79" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C80" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C81" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C82" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C83" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C84" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C85" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C86" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C87" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C88" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C89" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C90" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C91" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C92" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C93" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C94" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C95" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C96" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C97" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C98" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C99" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C100" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C101" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C102" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C103" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C104" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C105" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C106" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C107" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C108" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C109" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C110" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C111" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C112" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C113" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C114" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C115" s="9">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9ACFCE-4CDE-4CE7-8762-8B168A0FE3C1}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11">
+        <v>25</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9">
+        <v>62</v>
+      </c>
+      <c r="C2" s="13">
+        <v>63</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="9">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="9">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="9">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="9">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="9">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="9">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="9">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="9">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="9">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="9">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="9">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="9">
+        <v>9</v>
+      </c>
+      <c r="C17" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="9">
+        <v>8</v>
+      </c>
+      <c r="C18" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="9">
+        <v>8</v>
+      </c>
+      <c r="C19" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="9">
+        <v>7</v>
+      </c>
+      <c r="C20" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="9">
+        <v>7</v>
+      </c>
+      <c r="C21" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="9">
+        <v>13</v>
+      </c>
+      <c r="C22" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="9">
+        <v>8</v>
+      </c>
+      <c r="C23" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="9">
+        <v>11</v>
+      </c>
+      <c r="C24" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="9">
+        <v>8</v>
+      </c>
+      <c r="C25" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="9">
+        <v>11</v>
+      </c>
+      <c r="C26" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="9">
+        <v>9</v>
+      </c>
+      <c r="C27" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="9">
+        <v>8</v>
+      </c>
+      <c r="C28" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="9">
+        <v>9</v>
+      </c>
+      <c r="C29" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="9">
+        <v>10</v>
+      </c>
+      <c r="C30" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" s="9">
+        <v>10</v>
+      </c>
+      <c r="C31" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="9">
+        <v>7</v>
+      </c>
+      <c r="C32" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="9">
+        <v>8</v>
+      </c>
+      <c r="C33" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="9">
+        <v>11</v>
+      </c>
+      <c r="C34" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="9">
+        <v>9</v>
+      </c>
+      <c r="C35" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="9">
+        <v>12</v>
+      </c>
+      <c r="C36" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="9">
+        <v>10</v>
+      </c>
+      <c r="C37" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="9">
+        <v>10</v>
+      </c>
+      <c r="C38" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="9">
+        <v>10</v>
+      </c>
+      <c r="C39" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="9">
+        <v>11</v>
+      </c>
+      <c r="C40" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41" s="9">
+        <v>8</v>
+      </c>
+      <c r="C41" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="9">
+        <v>8</v>
+      </c>
+      <c r="C42" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="9">
+        <v>10</v>
+      </c>
+      <c r="C43" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="9">
+        <v>9</v>
+      </c>
+      <c r="C44" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="9">
+        <v>12</v>
+      </c>
+      <c r="C45" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B46" s="9">
+        <v>11</v>
+      </c>
+      <c r="C46" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B47" s="9">
+        <v>12</v>
+      </c>
+      <c r="C47" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B48" s="9">
+        <v>9</v>
+      </c>
+      <c r="C48" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" s="9">
+        <v>8</v>
+      </c>
+      <c r="C49" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50" s="9">
+        <v>9</v>
+      </c>
+      <c r="C50" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51" s="9">
+        <v>8</v>
+      </c>
+      <c r="C51" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52" s="9">
+        <v>10</v>
+      </c>
+      <c r="C52" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53" s="9">
+        <v>8</v>
+      </c>
+      <c r="C53" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B54" s="9">
+        <v>9</v>
+      </c>
+      <c r="C54" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B55" s="9">
+        <v>10</v>
+      </c>
+      <c r="C55" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B56" s="9">
+        <v>8</v>
+      </c>
+      <c r="C56" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B57" s="9">
+        <v>9</v>
+      </c>
+      <c r="C57" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B58" s="9">
+        <v>9</v>
+      </c>
+      <c r="C58" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B59" s="9">
+        <v>9</v>
+      </c>
+      <c r="C59" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B60" s="9">
+        <v>9</v>
+      </c>
+      <c r="C60" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B61" s="9">
+        <v>9</v>
+      </c>
+      <c r="C61" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B62" s="9">
+        <v>8</v>
+      </c>
+      <c r="C62" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B63" s="9">
+        <v>8</v>
+      </c>
+      <c r="C63" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B64" s="9">
+        <v>9</v>
+      </c>
+      <c r="C64" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B65" s="9">
+        <v>11</v>
+      </c>
+      <c r="C65" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B66" s="9">
+        <v>9</v>
+      </c>
+      <c r="C66" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B67" s="9">
+        <v>10</v>
+      </c>
+      <c r="C67" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B68" s="9">
+        <v>10</v>
+      </c>
+      <c r="C68" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B69" s="9">
+        <v>9</v>
+      </c>
+      <c r="C69" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B70" s="9">
+        <v>8</v>
+      </c>
+      <c r="C70" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B71" s="9">
+        <v>9</v>
+      </c>
+      <c r="C71" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B72" s="9">
+        <v>7</v>
+      </c>
+      <c r="C72" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B73" s="9">
+        <v>10</v>
+      </c>
+      <c r="C73" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B74" s="9">
+        <v>11</v>
+      </c>
+      <c r="C74" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B75" s="9">
+        <v>8</v>
+      </c>
+      <c r="C75" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B76" s="9">
+        <v>8</v>
+      </c>
+      <c r="C76" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B77" s="9">
+        <v>7</v>
+      </c>
+      <c r="C77" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B78" s="9">
+        <v>11</v>
+      </c>
+      <c r="C78" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B79" s="9">
+        <v>12</v>
+      </c>
+      <c r="C79" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B80" s="9">
+        <v>10</v>
+      </c>
+      <c r="C80" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B81" s="9">
+        <v>8</v>
+      </c>
+      <c r="C81" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B82" s="9">
+        <v>9</v>
+      </c>
+      <c r="C82" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B83" s="9">
+        <v>11</v>
+      </c>
+      <c r="C83" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B84" s="9">
+        <v>10</v>
+      </c>
+      <c r="C84" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B85" s="9">
+        <v>9</v>
+      </c>
+      <c r="C85" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B86" s="9">
+        <v>8</v>
+      </c>
+      <c r="C86" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B87" s="9">
+        <v>11</v>
+      </c>
+      <c r="C87" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B88" s="9">
+        <v>11</v>
+      </c>
+      <c r="C88" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B89" s="9">
+        <v>8</v>
+      </c>
+      <c r="C89" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B90" s="9">
+        <v>11</v>
+      </c>
+      <c r="C90" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B91" s="9">
+        <v>9</v>
+      </c>
+      <c r="C91" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C92" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C93" s="9">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5437896A-8C5C-427A-9305-13470FEEA7C6}">
+  <dimension ref="A1:F94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11">
+        <v>25</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14">
+        <v>63</v>
+      </c>
+      <c r="C2" s="9">
+        <v>62</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="12">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="12">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="12">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="12">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="12">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="12">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="12">
+        <v>8</v>
+      </c>
+      <c r="C13" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="12">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="12">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="12">
+        <v>7</v>
+      </c>
+      <c r="C16" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="12">
+        <v>7</v>
+      </c>
+      <c r="C17" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="12">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="12">
+        <v>7</v>
+      </c>
+      <c r="C19" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="12">
+        <v>9</v>
+      </c>
+      <c r="C20" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="12">
+        <v>9</v>
+      </c>
+      <c r="C21" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="12">
+        <v>7</v>
+      </c>
+      <c r="C22" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="12">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="12">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="12">
+        <v>7</v>
+      </c>
+      <c r="C25" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="12">
+        <v>8</v>
+      </c>
+      <c r="C26" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="12">
+        <v>9</v>
+      </c>
+      <c r="C27" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="12">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="12">
+        <v>7</v>
+      </c>
+      <c r="C29" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="12">
+        <v>9</v>
+      </c>
+      <c r="C30" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" s="12">
+        <v>8</v>
+      </c>
+      <c r="C31" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="12">
+        <v>8</v>
+      </c>
+      <c r="C32" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="12">
+        <v>9</v>
+      </c>
+      <c r="C33" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="12">
+        <v>10</v>
+      </c>
+      <c r="C34" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="12">
+        <v>7</v>
+      </c>
+      <c r="C35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="12">
+        <v>7</v>
+      </c>
+      <c r="C36" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="12">
+        <v>9</v>
+      </c>
+      <c r="C37" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="12">
+        <v>8</v>
+      </c>
+      <c r="C38" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="12">
+        <v>8</v>
+      </c>
+      <c r="C39" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="12">
+        <v>7</v>
+      </c>
+      <c r="C40" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41" s="12">
+        <v>10</v>
+      </c>
+      <c r="C41" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="12">
+        <v>9</v>
+      </c>
+      <c r="C42" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="12">
+        <v>9</v>
+      </c>
+      <c r="C43" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="12">
+        <v>7</v>
+      </c>
+      <c r="C44" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="12">
+        <v>9</v>
+      </c>
+      <c r="C45" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B46" s="12">
+        <v>10</v>
+      </c>
+      <c r="C46" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B47" s="12">
+        <v>8</v>
+      </c>
+      <c r="C47" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B48" s="12">
+        <v>8</v>
+      </c>
+      <c r="C48" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" s="12">
+        <v>8</v>
+      </c>
+      <c r="C49" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50" s="12">
+        <v>8</v>
+      </c>
+      <c r="C50" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51" s="12">
+        <v>8</v>
+      </c>
+      <c r="C51" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52" s="12">
+        <v>7</v>
+      </c>
+      <c r="C52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53" s="12">
+        <v>8</v>
+      </c>
+      <c r="C53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B54" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B55" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B56" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B57" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B58" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B59" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B60" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B61" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B62" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B63" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B64" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="12">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DC2137-0950-4DFB-8150-B63CE4CB2456}">
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11">
+        <v>25</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14">
+        <v>63</v>
+      </c>
+      <c r="C2" s="9">
+        <v>62</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8">
+        <v>14.6</v>
+      </c>
+      <c r="C3" s="14">
+        <v>14.7</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>8</v>
+      </c>
+      <c r="C4" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="9">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="9">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="9">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="9">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="9">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="9">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="9">
+        <v>7</v>
+      </c>
+      <c r="C15" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="9">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="11">
-        <v>8</v>
+      <c r="B17" s="9">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="11">
+      <c r="B18" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="11">
-        <v>7</v>
+      <c r="B19" s="9">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="11">
-        <v>7</v>
+      <c r="B20" s="9">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="11">
+      <c r="B21" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="11">
-        <v>9</v>
+      <c r="B22" s="9">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="11">
+      <c r="B23" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="11">
-        <v>8</v>
+      <c r="B24" s="9">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="11">
+      <c r="B25" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="11">
-        <v>7</v>
+      <c r="B26" s="9">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="11">
-        <v>7</v>
+      <c r="B27" s="9">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="11">
-        <v>7</v>
+      <c r="B28" s="9">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="11">
-        <v>7</v>
+      <c r="B29" s="9">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B30" s="11">
-        <v>7</v>
+      <c r="B30" s="9">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="11">
+      <c r="B31" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="11">
-        <v>7</v>
+      <c r="B32" s="9">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="11">
-        <v>8</v>
+      <c r="B33" s="9">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="11">
-        <v>8</v>
+      <c r="B34" s="9">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="11">
+      <c r="B35" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="11">
-        <v>8</v>
+      <c r="B36" s="9">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="11">
-        <v>9</v>
+      <c r="B37" s="9">
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="11">
-        <v>8</v>
+      <c r="B38" s="9">
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="11">
+      <c r="B39" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="11">
+      <c r="B40" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="9">
         <v>9</v>
       </c>
     </row>

--- a/Data/Moter_speed_and_seed_number/电机转速-挡板高度-出种数量.xlsx
+++ b/Data/Moter_speed_and_seed_number/电机转速-挡板高度-出种数量.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development-of-wheat-precision-seeding-control-system\Data\Moter_speed_and_seed_number\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EB432E-6037-42B1-B8F2-E3CF80BFD91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185932CB-0AB1-4EC4-9921-A370439E917D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22046" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" tabRatio="728" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="转速5rpm" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="转速25rpm" sheetId="5" r:id="rId5"/>
     <sheet name="转速30rpm" sheetId="6" r:id="rId6"/>
     <sheet name="转速35rpm" sheetId="7" r:id="rId7"/>
+    <sheet name="转速40rpm" sheetId="8" r:id="rId8"/>
+    <sheet name="转速45rpm" sheetId="9" r:id="rId9"/>
+    <sheet name="转速50rpm" sheetId="11" r:id="rId10"/>
+    <sheet name="转速55rpm" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
   <si>
     <r>
       <rPr>
@@ -275,12 +279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -288,6 +286,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -590,13 +594,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="13">
         <v>5</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="16.3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -992,6 +996,1935 @@
     <row r="52" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C52" s="1">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1F9063-FD8C-44AD-959D-83B64B45B67B}">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14">
+        <v>50</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9">
+        <v>61</v>
+      </c>
+      <c r="C2" s="9">
+        <v>60</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9">
+        <v>14.8</v>
+      </c>
+      <c r="C3" s="9">
+        <v>14.9</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="9">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="9">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="9">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="9">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="9">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="9">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="9">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="9">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="9">
+        <v>8</v>
+      </c>
+      <c r="C17" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="9">
+        <v>9</v>
+      </c>
+      <c r="C18" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="9">
+        <v>8</v>
+      </c>
+      <c r="C19" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="9">
+        <v>8</v>
+      </c>
+      <c r="C20" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="9">
+        <v>7</v>
+      </c>
+      <c r="C21" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="9">
+        <v>7</v>
+      </c>
+      <c r="C22" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="9">
+        <v>9</v>
+      </c>
+      <c r="C23" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="9">
+        <v>7</v>
+      </c>
+      <c r="C24" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="9">
+        <v>7</v>
+      </c>
+      <c r="C25" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="9">
+        <v>7</v>
+      </c>
+      <c r="C26" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="9">
+        <v>7</v>
+      </c>
+      <c r="C27" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="9">
+        <v>8</v>
+      </c>
+      <c r="C28" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="9">
+        <v>8</v>
+      </c>
+      <c r="C29" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="9">
+        <v>9</v>
+      </c>
+      <c r="C30" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" s="9">
+        <v>7</v>
+      </c>
+      <c r="C31" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="9">
+        <v>7</v>
+      </c>
+      <c r="C32" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="9">
+        <v>8</v>
+      </c>
+      <c r="C33" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B46" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B47" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B48" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B64" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B101" s="9">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D2226B-6A43-4580-A085-E22962F56D5D}">
+  <dimension ref="A1:F168"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14">
+        <v>55</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9">
+        <v>61</v>
+      </c>
+      <c r="C2" s="9">
+        <v>60</v>
+      </c>
+      <c r="D2" s="9">
+        <v>59</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9">
+        <v>14.8</v>
+      </c>
+      <c r="C3" s="9">
+        <v>14.9</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="9">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="9">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="9">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="9">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="9">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="9">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="9">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="9">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="9">
+        <v>6</v>
+      </c>
+      <c r="C16" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="9">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="9">
+        <v>6</v>
+      </c>
+      <c r="C18" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="9">
+        <v>8</v>
+      </c>
+      <c r="C19" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="9">
+        <v>7</v>
+      </c>
+      <c r="C20" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="9">
+        <v>7</v>
+      </c>
+      <c r="C21" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="9">
+        <v>8</v>
+      </c>
+      <c r="C22" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="9">
+        <v>9</v>
+      </c>
+      <c r="C23" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="9">
+        <v>6</v>
+      </c>
+      <c r="C24" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="9">
+        <v>7</v>
+      </c>
+      <c r="C25" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="9">
+        <v>6</v>
+      </c>
+      <c r="C26" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="9">
+        <v>5</v>
+      </c>
+      <c r="C27" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="9">
+        <v>6</v>
+      </c>
+      <c r="C28" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="9">
+        <v>6</v>
+      </c>
+      <c r="C29" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="9">
+        <v>7</v>
+      </c>
+      <c r="C30" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" s="9">
+        <v>9</v>
+      </c>
+      <c r="C31" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="9">
+        <v>8</v>
+      </c>
+      <c r="C32" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="9">
+        <v>7</v>
+      </c>
+      <c r="C33" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="9">
+        <v>5</v>
+      </c>
+      <c r="C34" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="9">
+        <v>9</v>
+      </c>
+      <c r="C35" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="9">
+        <v>8</v>
+      </c>
+      <c r="C36" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="9">
+        <v>7</v>
+      </c>
+      <c r="C37" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="9">
+        <v>7</v>
+      </c>
+      <c r="C38" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="9">
+        <v>7</v>
+      </c>
+      <c r="C39" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="9">
+        <v>6</v>
+      </c>
+      <c r="C40" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41" s="9">
+        <v>7</v>
+      </c>
+      <c r="C41" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="9">
+        <v>6</v>
+      </c>
+      <c r="C42" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="9">
+        <v>6</v>
+      </c>
+      <c r="C43" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="9">
+        <v>6</v>
+      </c>
+      <c r="C44" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="9">
+        <v>8</v>
+      </c>
+      <c r="C45" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B46" s="9">
+        <v>6</v>
+      </c>
+      <c r="C46" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B47" s="9">
+        <v>7</v>
+      </c>
+      <c r="C47" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B48" s="9">
+        <v>6</v>
+      </c>
+      <c r="C48" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" s="9">
+        <v>7</v>
+      </c>
+      <c r="C49" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50" s="9">
+        <v>7</v>
+      </c>
+      <c r="C50" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51" s="9">
+        <v>7</v>
+      </c>
+      <c r="C51" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52" s="9">
+        <v>6</v>
+      </c>
+      <c r="C52" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53" s="9">
+        <v>8</v>
+      </c>
+      <c r="C53" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B54" s="9">
+        <v>7</v>
+      </c>
+      <c r="C54" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B55" s="9">
+        <v>9</v>
+      </c>
+      <c r="C55" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B56" s="9">
+        <v>7</v>
+      </c>
+      <c r="C56" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B57" s="9">
+        <v>9</v>
+      </c>
+      <c r="C57" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B58" s="9">
+        <v>7</v>
+      </c>
+      <c r="C58" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B59" s="9">
+        <v>6</v>
+      </c>
+      <c r="C59" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B60" s="9">
+        <v>7</v>
+      </c>
+      <c r="C60" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B61" s="9">
+        <v>6</v>
+      </c>
+      <c r="C61" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B62" s="9">
+        <v>8</v>
+      </c>
+      <c r="C62" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B63" s="9">
+        <v>8</v>
+      </c>
+      <c r="C63" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B64" s="9">
+        <v>6</v>
+      </c>
+      <c r="C64" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B65" s="9">
+        <v>9</v>
+      </c>
+      <c r="C65" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B66" s="9">
+        <v>7</v>
+      </c>
+      <c r="C66" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B67" s="9">
+        <v>7</v>
+      </c>
+      <c r="C67" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B68" s="9">
+        <v>7</v>
+      </c>
+      <c r="C68" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B69" s="9">
+        <v>8</v>
+      </c>
+      <c r="C69" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B70" s="9">
+        <v>9</v>
+      </c>
+      <c r="C70" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B71" s="9">
+        <v>8</v>
+      </c>
+      <c r="C71" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B72" s="9">
+        <v>9</v>
+      </c>
+      <c r="C72" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B73" s="9">
+        <v>8</v>
+      </c>
+      <c r="C73" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B74" s="9">
+        <v>7</v>
+      </c>
+      <c r="C74" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B75" s="9">
+        <v>8</v>
+      </c>
+      <c r="C75" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B76" s="9">
+        <v>7</v>
+      </c>
+      <c r="C76" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B77" s="9">
+        <v>7</v>
+      </c>
+      <c r="C77" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B78" s="9">
+        <v>8</v>
+      </c>
+      <c r="C78" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B79" s="9">
+        <v>6</v>
+      </c>
+      <c r="C79" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B80" s="9">
+        <v>7</v>
+      </c>
+      <c r="C80" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B81" s="9">
+        <v>7</v>
+      </c>
+      <c r="C81" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B82" s="9">
+        <v>7</v>
+      </c>
+      <c r="C82" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B83" s="9">
+        <v>7</v>
+      </c>
+      <c r="C83" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B84" s="9">
+        <v>8</v>
+      </c>
+      <c r="C84" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B85" s="9">
+        <v>9</v>
+      </c>
+      <c r="C85" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B86" s="9">
+        <v>8</v>
+      </c>
+      <c r="C86" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B87" s="9">
+        <v>8</v>
+      </c>
+      <c r="C87" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B88" s="9">
+        <v>7</v>
+      </c>
+      <c r="C88" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B89" s="9">
+        <v>8</v>
+      </c>
+      <c r="C89" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B90" s="9">
+        <v>7</v>
+      </c>
+      <c r="C90" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B91" s="9">
+        <v>7</v>
+      </c>
+      <c r="C91" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B92" s="9">
+        <v>6</v>
+      </c>
+      <c r="C92" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B93" s="9">
+        <v>6</v>
+      </c>
+      <c r="C93" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B94" s="9">
+        <v>6</v>
+      </c>
+      <c r="C94" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B95" s="9">
+        <v>7</v>
+      </c>
+      <c r="C95" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B96" s="9">
+        <v>7</v>
+      </c>
+      <c r="C96" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B97" s="9">
+        <v>6</v>
+      </c>
+      <c r="C97" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B98" s="9">
+        <v>7</v>
+      </c>
+      <c r="C98" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B99" s="9">
+        <v>6</v>
+      </c>
+      <c r="C99" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B100" s="9">
+        <v>8</v>
+      </c>
+      <c r="C100" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B101" s="9">
+        <v>6</v>
+      </c>
+      <c r="C101" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B102" s="9">
+        <v>6</v>
+      </c>
+      <c r="C102" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B103" s="9">
+        <v>8</v>
+      </c>
+      <c r="C103" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B104" s="9">
+        <v>6</v>
+      </c>
+      <c r="C104" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B105" s="9">
+        <v>7</v>
+      </c>
+      <c r="C105" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B106" s="9">
+        <v>7</v>
+      </c>
+      <c r="C106" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B107" s="9">
+        <v>6</v>
+      </c>
+      <c r="C107" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B108" s="9">
+        <v>8</v>
+      </c>
+      <c r="C108" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B109" s="9">
+        <v>6</v>
+      </c>
+      <c r="C109" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B110" s="9">
+        <v>6</v>
+      </c>
+      <c r="C110" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B111" s="9">
+        <v>8</v>
+      </c>
+      <c r="C111" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B112" s="9">
+        <v>7</v>
+      </c>
+      <c r="C112" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B113" s="9">
+        <v>8</v>
+      </c>
+      <c r="C113" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B114" s="9">
+        <v>6</v>
+      </c>
+      <c r="C114" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B115" s="9">
+        <v>7</v>
+      </c>
+      <c r="C115" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B116" s="9">
+        <v>7</v>
+      </c>
+      <c r="C116" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B117" s="9">
+        <v>7</v>
+      </c>
+      <c r="C117" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B118" s="9">
+        <v>5</v>
+      </c>
+      <c r="C118" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B119" s="9">
+        <v>6</v>
+      </c>
+      <c r="C119" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B120" s="9">
+        <v>6</v>
+      </c>
+      <c r="C120" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B121" s="9">
+        <v>7</v>
+      </c>
+      <c r="C121" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B122" s="9">
+        <v>8</v>
+      </c>
+      <c r="C122" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B123" s="9">
+        <v>8</v>
+      </c>
+      <c r="C123" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B124" s="9">
+        <v>7</v>
+      </c>
+      <c r="C124" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B125" s="9">
+        <v>7</v>
+      </c>
+      <c r="C125" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B126" s="9">
+        <v>5</v>
+      </c>
+      <c r="C126" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B127" s="9">
+        <v>7</v>
+      </c>
+      <c r="C127" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B128" s="9">
+        <v>7</v>
+      </c>
+      <c r="C128" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B129" s="9">
+        <v>6</v>
+      </c>
+      <c r="C129" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B130" s="9">
+        <v>7</v>
+      </c>
+      <c r="C130" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B131" s="9">
+        <v>6</v>
+      </c>
+      <c r="C131" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B132" s="9">
+        <v>7</v>
+      </c>
+      <c r="C132" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B133" s="9">
+        <v>8</v>
+      </c>
+      <c r="C133" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B134" s="9">
+        <v>7</v>
+      </c>
+      <c r="C134" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C135" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C136" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C137" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C138" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C139" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C140" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C141" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C142" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C143" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C144" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C145" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C146" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C147" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C148" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C149" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C150" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C151" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C152" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C153" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C154" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C155" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C156" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C157" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C158" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C159" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C160" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C161" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C162" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C163" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C164" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C165" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C166" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C167" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C168" s="9">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1021,13 +2954,13 @@
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11">
-        <v>10</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="14">
+        <v>10</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -1432,13 +3365,13 @@
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="14">
         <v>15</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -2088,13 +4021,13 @@
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="14">
         <v>20</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -3025,8 +4958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9ACFCE-4CDE-4CE7-8762-8B168A0FE3C1}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3039,13 +4972,13 @@
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="14">
         <v>25</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -3054,7 +4987,7 @@
       <c r="B2" s="9">
         <v>62</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>63</v>
       </c>
       <c r="E2" s="4"/>
@@ -3798,33 +5731,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5437896A-8C5C-427A-9305-13470FEEA7C6}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="22.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11">
-        <v>25</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="14">
+        <v>30</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>63</v>
       </c>
       <c r="C2" s="9">
@@ -3839,7 +5772,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="14"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="9"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -3848,10 +5781,10 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
-        <v>9</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="12">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12">
         <v>7</v>
       </c>
       <c r="D4" s="9"/>
@@ -3863,7 +5796,7 @@
       <c r="B5" s="9">
         <v>7</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>10</v>
       </c>
       <c r="D5" s="9"/>
@@ -3871,7 +5804,7 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>9</v>
       </c>
       <c r="C6" s="9">
@@ -3879,583 +5812,583 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="12">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="10">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="12">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="B8" s="10">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="12">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B9" s="10">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="12">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="B10" s="10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="12">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="B11" s="10">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="12">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="B12" s="10">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="12">
-        <v>8</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B13" s="10">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="12">
-        <v>8</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="B14" s="10">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="12">
-        <v>8</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="B15" s="10">
+        <v>8</v>
+      </c>
+      <c r="C15" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="12">
-        <v>7</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="B16" s="10">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="12">
-        <v>7</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="B17" s="10">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="12">
-        <v>9</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="10">
+        <v>9</v>
+      </c>
+      <c r="C18" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="12">
-        <v>7</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="B19" s="10">
+        <v>7</v>
+      </c>
+      <c r="C19" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="12">
-        <v>9</v>
-      </c>
-      <c r="C20" s="12">
+      <c r="B20" s="10">
+        <v>9</v>
+      </c>
+      <c r="C20" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="12">
-        <v>9</v>
-      </c>
-      <c r="C21" s="12">
+      <c r="B21" s="10">
+        <v>9</v>
+      </c>
+      <c r="C21" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="12">
-        <v>7</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="B22" s="10">
+        <v>7</v>
+      </c>
+      <c r="C22" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="12">
-        <v>9</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="B23" s="10">
+        <v>9</v>
+      </c>
+      <c r="C23" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="12">
-        <v>9</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="B24" s="10">
+        <v>9</v>
+      </c>
+      <c r="C24" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="12">
-        <v>7</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="B25" s="10">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="12">
-        <v>8</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="B26" s="10">
+        <v>8</v>
+      </c>
+      <c r="C26" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="12">
-        <v>9</v>
-      </c>
-      <c r="C27" s="12">
+      <c r="B27" s="10">
+        <v>9</v>
+      </c>
+      <c r="C27" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="12">
-        <v>9</v>
-      </c>
-      <c r="C28" s="12">
+      <c r="B28" s="10">
+        <v>9</v>
+      </c>
+      <c r="C28" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="12">
-        <v>7</v>
-      </c>
-      <c r="C29" s="12">
+      <c r="B29" s="10">
+        <v>7</v>
+      </c>
+      <c r="C29" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" s="12">
-        <v>9</v>
-      </c>
-      <c r="C30" s="12">
+      <c r="B30" s="10">
+        <v>9</v>
+      </c>
+      <c r="C30" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" s="12">
-        <v>8</v>
-      </c>
-      <c r="C31" s="12">
+      <c r="B31" s="10">
+        <v>8</v>
+      </c>
+      <c r="C31" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="12">
-        <v>8</v>
-      </c>
-      <c r="C32" s="12">
+      <c r="B32" s="10">
+        <v>8</v>
+      </c>
+      <c r="C32" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="12">
-        <v>9</v>
-      </c>
-      <c r="C33" s="12">
+      <c r="B33" s="10">
+        <v>9</v>
+      </c>
+      <c r="C33" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="12">
-        <v>10</v>
-      </c>
-      <c r="C34" s="12">
+      <c r="B34" s="10">
+        <v>10</v>
+      </c>
+      <c r="C34" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B35" s="12">
-        <v>7</v>
-      </c>
-      <c r="C35" s="12">
+      <c r="B35" s="10">
+        <v>7</v>
+      </c>
+      <c r="C35" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="12">
-        <v>7</v>
-      </c>
-      <c r="C36" s="12">
+      <c r="B36" s="10">
+        <v>7</v>
+      </c>
+      <c r="C36" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B37" s="12">
-        <v>9</v>
-      </c>
-      <c r="C37" s="12">
+      <c r="B37" s="10">
+        <v>9</v>
+      </c>
+      <c r="C37" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B38" s="12">
-        <v>8</v>
-      </c>
-      <c r="C38" s="12">
+      <c r="B38" s="10">
+        <v>8</v>
+      </c>
+      <c r="C38" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B39" s="12">
-        <v>8</v>
-      </c>
-      <c r="C39" s="12">
+      <c r="B39" s="10">
+        <v>8</v>
+      </c>
+      <c r="C39" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B40" s="12">
-        <v>7</v>
-      </c>
-      <c r="C40" s="12">
+      <c r="B40" s="10">
+        <v>7</v>
+      </c>
+      <c r="C40" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B41" s="12">
-        <v>10</v>
-      </c>
-      <c r="C41" s="12">
+      <c r="B41" s="10">
+        <v>10</v>
+      </c>
+      <c r="C41" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B42" s="12">
-        <v>9</v>
-      </c>
-      <c r="C42" s="12">
+      <c r="B42" s="10">
+        <v>9</v>
+      </c>
+      <c r="C42" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="12">
-        <v>9</v>
-      </c>
-      <c r="C43" s="12">
+      <c r="B43" s="10">
+        <v>9</v>
+      </c>
+      <c r="C43" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="12">
-        <v>7</v>
-      </c>
-      <c r="C44" s="12">
+      <c r="B44" s="10">
+        <v>7</v>
+      </c>
+      <c r="C44" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="12">
-        <v>9</v>
-      </c>
-      <c r="C45" s="12">
+      <c r="B45" s="10">
+        <v>9</v>
+      </c>
+      <c r="C45" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="12">
-        <v>10</v>
-      </c>
-      <c r="C46" s="12">
+      <c r="B46" s="10">
+        <v>10</v>
+      </c>
+      <c r="C46" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="12">
-        <v>8</v>
-      </c>
-      <c r="C47" s="12">
+      <c r="B47" s="10">
+        <v>8</v>
+      </c>
+      <c r="C47" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B48" s="12">
-        <v>8</v>
-      </c>
-      <c r="C48" s="12">
+      <c r="B48" s="10">
+        <v>8</v>
+      </c>
+      <c r="C48" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B49" s="12">
-        <v>8</v>
-      </c>
-      <c r="C49" s="12">
+      <c r="B49" s="10">
+        <v>8</v>
+      </c>
+      <c r="C49" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B50" s="12">
-        <v>8</v>
-      </c>
-      <c r="C50" s="12">
+      <c r="B50" s="10">
+        <v>8</v>
+      </c>
+      <c r="C50" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="12">
-        <v>8</v>
-      </c>
-      <c r="C51" s="12">
+      <c r="B51" s="10">
+        <v>8</v>
+      </c>
+      <c r="C51" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B52" s="12">
-        <v>7</v>
-      </c>
-      <c r="C52" s="12">
+      <c r="B52" s="10">
+        <v>7</v>
+      </c>
+      <c r="C52" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B53" s="12">
-        <v>8</v>
-      </c>
-      <c r="C53" s="12">
+      <c r="B53" s="10">
+        <v>8</v>
+      </c>
+      <c r="C53" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B54" s="12">
+      <c r="B54" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B55" s="12">
+      <c r="B55" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B56" s="12">
+      <c r="B56" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B57" s="12">
+      <c r="B57" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B58" s="12">
+      <c r="B58" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B59" s="12">
+      <c r="B59" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B60" s="12">
+      <c r="B60" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B61" s="12">
+      <c r="B61" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B62" s="12">
+      <c r="B62" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B63" s="12">
+      <c r="B63" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B64" s="12">
+      <c r="B64" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="12">
+      <c r="B65" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="12">
+      <c r="B66" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="12">
+      <c r="B67" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="12">
+      <c r="B68" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="12">
+      <c r="B69" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="12">
+      <c r="B70" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="12">
+      <c r="B71" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="12">
+      <c r="B72" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="12">
+      <c r="B73" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="12">
+      <c r="B74" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="12">
+      <c r="B75" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="12">
+      <c r="B76" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="12">
+      <c r="B77" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="12">
+      <c r="B78" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="12">
+      <c r="B79" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80" s="12">
+      <c r="B80" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="12">
+      <c r="B81" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="12">
+      <c r="B82" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="12">
+      <c r="B83" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="12">
+      <c r="B84" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="12">
+      <c r="B85" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="12">
+      <c r="B86" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="12">
+      <c r="B87" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="12">
+      <c r="B88" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="12">
+      <c r="B89" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="12">
+      <c r="B90" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="12">
+      <c r="B91" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="12">
+      <c r="B92" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="12">
+      <c r="B93" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="12">
+      <c r="B94" s="10">
         <v>10</v>
       </c>
     </row>
@@ -4472,8 +6405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DC2137-0950-4DFB-8150-B63CE4CB2456}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -4486,19 +6419,19 @@
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11">
-        <v>25</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="14">
+        <v>35</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>63</v>
       </c>
       <c r="C2" s="9">
@@ -4514,7 +6447,7 @@
       <c r="B3" s="8">
         <v>14.6</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>14.7</v>
       </c>
       <c r="E3" s="4"/>
@@ -4524,10 +6457,10 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
-        <v>8</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="12">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4850,6 +6783,1901 @@
     <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="9">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9426BAA9-36A5-4DB2-A7FE-EE2A4715BF34}">
+  <dimension ref="A1:F120"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14">
+        <v>40</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12">
+        <v>63</v>
+      </c>
+      <c r="C2" s="11">
+        <v>62</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8">
+        <v>14.6</v>
+      </c>
+      <c r="C3" s="12">
+        <v>14.7</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="9">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="9">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="9">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="9">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="9">
+        <v>6</v>
+      </c>
+      <c r="C12" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="9">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="9">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="9">
+        <v>6</v>
+      </c>
+      <c r="C15" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="9">
+        <v>7</v>
+      </c>
+      <c r="C16" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="9">
+        <v>9</v>
+      </c>
+      <c r="C17" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="9">
+        <v>8</v>
+      </c>
+      <c r="C18" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="9">
+        <v>7</v>
+      </c>
+      <c r="C19" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="9">
+        <v>7</v>
+      </c>
+      <c r="C20" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="9">
+        <v>7</v>
+      </c>
+      <c r="C21" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="9">
+        <v>6</v>
+      </c>
+      <c r="C22" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="9">
+        <v>6</v>
+      </c>
+      <c r="C23" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="9">
+        <v>7</v>
+      </c>
+      <c r="C24" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="9">
+        <v>9</v>
+      </c>
+      <c r="C25" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="9">
+        <v>7</v>
+      </c>
+      <c r="C26" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="9">
+        <v>7</v>
+      </c>
+      <c r="C27" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="9">
+        <v>7</v>
+      </c>
+      <c r="C28" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="9">
+        <v>8</v>
+      </c>
+      <c r="C29" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="9">
+        <v>7</v>
+      </c>
+      <c r="C30" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" s="9">
+        <v>8</v>
+      </c>
+      <c r="C31" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="9">
+        <v>6</v>
+      </c>
+      <c r="C32" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="9">
+        <v>6</v>
+      </c>
+      <c r="C33" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="9">
+        <v>6</v>
+      </c>
+      <c r="C34" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="9">
+        <v>6</v>
+      </c>
+      <c r="C35" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="9">
+        <v>7</v>
+      </c>
+      <c r="C36" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="9">
+        <v>7</v>
+      </c>
+      <c r="C37" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="9">
+        <v>7</v>
+      </c>
+      <c r="C38" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="9">
+        <v>8</v>
+      </c>
+      <c r="C39" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="9">
+        <v>8</v>
+      </c>
+      <c r="C40" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41" s="9">
+        <v>7</v>
+      </c>
+      <c r="C41" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="9">
+        <v>8</v>
+      </c>
+      <c r="C42" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="9">
+        <v>8</v>
+      </c>
+      <c r="C43" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="9">
+        <v>6</v>
+      </c>
+      <c r="C44" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="9">
+        <v>7</v>
+      </c>
+      <c r="C45" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B46" s="9">
+        <v>5</v>
+      </c>
+      <c r="C46" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B47" s="9">
+        <v>7</v>
+      </c>
+      <c r="C47" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B48" s="9">
+        <v>8</v>
+      </c>
+      <c r="C48" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" s="9">
+        <v>9</v>
+      </c>
+      <c r="C49" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50" s="9">
+        <v>9</v>
+      </c>
+      <c r="C50" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51" s="9">
+        <v>6</v>
+      </c>
+      <c r="C51" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52" s="9">
+        <v>7</v>
+      </c>
+      <c r="C52" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B53" s="9">
+        <v>7</v>
+      </c>
+      <c r="C53" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B54" s="9">
+        <v>8</v>
+      </c>
+      <c r="C54" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B55" s="9">
+        <v>7</v>
+      </c>
+      <c r="C55" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B56" s="9">
+        <v>9</v>
+      </c>
+      <c r="C56" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B57" s="9">
+        <v>9</v>
+      </c>
+      <c r="C57" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B58" s="9">
+        <v>8</v>
+      </c>
+      <c r="C58" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B59" s="9">
+        <v>7</v>
+      </c>
+      <c r="C59" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B60" s="9">
+        <v>7</v>
+      </c>
+      <c r="C60" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B61" s="9">
+        <v>6</v>
+      </c>
+      <c r="C61" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B62" s="9">
+        <v>6</v>
+      </c>
+      <c r="C62" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B63" s="9">
+        <v>7</v>
+      </c>
+      <c r="C63" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B64" s="9">
+        <v>7</v>
+      </c>
+      <c r="C64" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B65" s="9">
+        <v>8</v>
+      </c>
+      <c r="C65" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B66" s="9">
+        <v>7</v>
+      </c>
+      <c r="C66" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B67" s="9">
+        <v>6</v>
+      </c>
+      <c r="C67" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B68" s="9">
+        <v>8</v>
+      </c>
+      <c r="C68" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B69" s="9">
+        <v>6</v>
+      </c>
+      <c r="C69" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B70" s="9">
+        <v>8</v>
+      </c>
+      <c r="C70" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B71" s="9">
+        <v>7</v>
+      </c>
+      <c r="C71" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B72" s="9">
+        <v>7</v>
+      </c>
+      <c r="C72" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B73" s="9">
+        <v>5</v>
+      </c>
+      <c r="C73" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B74" s="9">
+        <v>7</v>
+      </c>
+      <c r="C74" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B75" s="9">
+        <v>7</v>
+      </c>
+      <c r="C75" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B76" s="9">
+        <v>5</v>
+      </c>
+      <c r="C76" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B77" s="9">
+        <v>8</v>
+      </c>
+      <c r="C77" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B78" s="9">
+        <v>7</v>
+      </c>
+      <c r="C78" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B79" s="9">
+        <v>6</v>
+      </c>
+      <c r="C79" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B80" s="9">
+        <v>9</v>
+      </c>
+      <c r="C80" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B81" s="9">
+        <v>7</v>
+      </c>
+      <c r="C81" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B82" s="9">
+        <v>6</v>
+      </c>
+      <c r="C82" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B83" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B84" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B85" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B86" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B87" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B88" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B89" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B90" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B91" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B92" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B93" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B94" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B95" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B96" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B101" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B110" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B111" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B112" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B113" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B115" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B116" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B117" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B118" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B119" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B120" s="9">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73965851-85AD-4F1E-86F5-C93842E70905}">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14">
+        <v>45</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9">
+        <v>62</v>
+      </c>
+      <c r="C2" s="11">
+        <v>61</v>
+      </c>
+      <c r="D2" s="9">
+        <v>60</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12">
+        <v>14.7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>14.8</v>
+      </c>
+      <c r="D3" s="9">
+        <v>14.9</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9">
+        <v>9</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="10">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="10">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="10">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="10">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10">
+        <v>7</v>
+      </c>
+      <c r="D9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="10">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10">
+        <v>7</v>
+      </c>
+      <c r="D11" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="10">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10">
+        <v>9</v>
+      </c>
+      <c r="D12" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="10">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10">
+        <v>8</v>
+      </c>
+      <c r="D13" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="10">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10">
+        <v>8</v>
+      </c>
+      <c r="D14" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="10">
+        <v>8</v>
+      </c>
+      <c r="C15" s="10">
+        <v>9</v>
+      </c>
+      <c r="D15" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="10">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10">
+        <v>9</v>
+      </c>
+      <c r="D16" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="10">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
+        <v>10</v>
+      </c>
+      <c r="D17" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="10">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10">
+        <v>11</v>
+      </c>
+      <c r="D18" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="10">
+        <v>8</v>
+      </c>
+      <c r="C19" s="10">
+        <v>8</v>
+      </c>
+      <c r="D19" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="10">
+        <v>8</v>
+      </c>
+      <c r="C20" s="10">
+        <v>10</v>
+      </c>
+      <c r="D20" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="10">
+        <v>8</v>
+      </c>
+      <c r="C21" s="10">
+        <v>8</v>
+      </c>
+      <c r="D21" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="10">
+        <v>7</v>
+      </c>
+      <c r="C22" s="10">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="10">
+        <v>9</v>
+      </c>
+      <c r="C23" s="10">
+        <v>10</v>
+      </c>
+      <c r="D23" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="10">
+        <v>8</v>
+      </c>
+      <c r="C24" s="10">
+        <v>9</v>
+      </c>
+      <c r="D24" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="10">
+        <v>8</v>
+      </c>
+      <c r="C25" s="10">
+        <v>7</v>
+      </c>
+      <c r="D25" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="10">
+        <v>9</v>
+      </c>
+      <c r="C26" s="10">
+        <v>7</v>
+      </c>
+      <c r="D26" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="10">
+        <v>8</v>
+      </c>
+      <c r="C27" s="10">
+        <v>9</v>
+      </c>
+      <c r="D27" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="10">
+        <v>7</v>
+      </c>
+      <c r="C28" s="10">
+        <v>9</v>
+      </c>
+      <c r="D28" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="10">
+        <v>8</v>
+      </c>
+      <c r="C29" s="10">
+        <v>12</v>
+      </c>
+      <c r="D29" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="10">
+        <v>9</v>
+      </c>
+      <c r="C30" s="10">
+        <v>10</v>
+      </c>
+      <c r="D30" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="10">
+        <v>9</v>
+      </c>
+      <c r="C31" s="10">
+        <v>8</v>
+      </c>
+      <c r="D31" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="10">
+        <v>7</v>
+      </c>
+      <c r="C32" s="10">
+        <v>7</v>
+      </c>
+      <c r="D32" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="10">
+        <v>9</v>
+      </c>
+      <c r="C33" s="10">
+        <v>7</v>
+      </c>
+      <c r="D33" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="10">
+        <v>9</v>
+      </c>
+      <c r="C34" s="10">
+        <v>7</v>
+      </c>
+      <c r="D34" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="10">
+        <v>7</v>
+      </c>
+      <c r="C35" s="10">
+        <v>7</v>
+      </c>
+      <c r="D35" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="10">
+        <v>8</v>
+      </c>
+      <c r="C36" s="10">
+        <v>10</v>
+      </c>
+      <c r="D36" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="10">
+        <v>9</v>
+      </c>
+      <c r="C37" s="10">
+        <v>7</v>
+      </c>
+      <c r="D37" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="10">
+        <v>7</v>
+      </c>
+      <c r="C38" s="10">
+        <v>8</v>
+      </c>
+      <c r="D38" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="10">
+        <v>9</v>
+      </c>
+      <c r="C39" s="10">
+        <v>9</v>
+      </c>
+      <c r="D39" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="10">
+        <v>7</v>
+      </c>
+      <c r="C40" s="10">
+        <v>8</v>
+      </c>
+      <c r="D40" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="10">
+        <v>8</v>
+      </c>
+      <c r="C41" s="10">
+        <v>10</v>
+      </c>
+      <c r="D41" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="10">
+        <v>10</v>
+      </c>
+      <c r="C42" s="10">
+        <v>8</v>
+      </c>
+      <c r="D42" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="10">
+        <v>7</v>
+      </c>
+      <c r="C43" s="10">
+        <v>8</v>
+      </c>
+      <c r="D43" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="10">
+        <v>7</v>
+      </c>
+      <c r="C44" s="10">
+        <v>7</v>
+      </c>
+      <c r="D44" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="10">
+        <v>8</v>
+      </c>
+      <c r="C45" s="10">
+        <v>7</v>
+      </c>
+      <c r="D45" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="10">
+        <v>8</v>
+      </c>
+      <c r="C46" s="10">
+        <v>8</v>
+      </c>
+      <c r="D46" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="10">
+        <v>8</v>
+      </c>
+      <c r="C47" s="10">
+        <v>10</v>
+      </c>
+      <c r="D47" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="10">
+        <v>9</v>
+      </c>
+      <c r="C48" s="10">
+        <v>10</v>
+      </c>
+      <c r="D48" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="10">
+        <v>7</v>
+      </c>
+      <c r="C49" s="10">
+        <v>9</v>
+      </c>
+      <c r="D49" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="10">
+        <v>7</v>
+      </c>
+      <c r="C50" s="10">
+        <v>8</v>
+      </c>
+      <c r="D50" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="10">
+        <v>9</v>
+      </c>
+      <c r="C51" s="10">
+        <v>9</v>
+      </c>
+      <c r="D51" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="10">
+        <v>8</v>
+      </c>
+      <c r="C52" s="10">
+        <v>12</v>
+      </c>
+      <c r="D52" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B53" s="10">
+        <v>9</v>
+      </c>
+      <c r="C53" s="10">
+        <v>7</v>
+      </c>
+      <c r="D53" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B54" s="10">
+        <v>8</v>
+      </c>
+      <c r="C54" s="10">
+        <v>9</v>
+      </c>
+      <c r="D54" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B55" s="10">
+        <v>8</v>
+      </c>
+      <c r="C55" s="10">
+        <v>9</v>
+      </c>
+      <c r="D55" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B56" s="10">
+        <v>9</v>
+      </c>
+      <c r="C56" s="10">
+        <v>9</v>
+      </c>
+      <c r="D56" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B57" s="10">
+        <v>9</v>
+      </c>
+      <c r="C57" s="10">
+        <v>8</v>
+      </c>
+      <c r="D57" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B58" s="10">
+        <v>8</v>
+      </c>
+      <c r="C58" s="10">
+        <v>9</v>
+      </c>
+      <c r="D58" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B59" s="10">
+        <v>9</v>
+      </c>
+      <c r="C59" s="10">
+        <v>8</v>
+      </c>
+      <c r="D59" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B60" s="10">
+        <v>7</v>
+      </c>
+      <c r="C60" s="10">
+        <v>9</v>
+      </c>
+      <c r="D60" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B61" s="10">
+        <v>7</v>
+      </c>
+      <c r="C61" s="10">
+        <v>8</v>
+      </c>
+      <c r="D61" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B62" s="10">
+        <v>9</v>
+      </c>
+      <c r="C62" s="10">
+        <v>8</v>
+      </c>
+      <c r="D62" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B63" s="10">
+        <v>8</v>
+      </c>
+      <c r="C63" s="10">
+        <v>7</v>
+      </c>
+      <c r="D63" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B64" s="10">
+        <v>8</v>
+      </c>
+      <c r="C64" s="10">
+        <v>8</v>
+      </c>
+      <c r="D64" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B65" s="10">
+        <v>7</v>
+      </c>
+      <c r="C65" s="10">
+        <v>8</v>
+      </c>
+      <c r="D65" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B66" s="10">
+        <v>8</v>
+      </c>
+      <c r="C66" s="10">
+        <v>9</v>
+      </c>
+      <c r="D66" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B67" s="10">
+        <v>9</v>
+      </c>
+      <c r="C67" s="10">
+        <v>9</v>
+      </c>
+      <c r="D67" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B68" s="10">
+        <v>7</v>
+      </c>
+      <c r="C68" s="10">
+        <v>8</v>
+      </c>
+      <c r="D68" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B69" s="10">
+        <v>8</v>
+      </c>
+      <c r="C69" s="10">
+        <v>7</v>
+      </c>
+      <c r="D69" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B70" s="10">
+        <v>9</v>
+      </c>
+      <c r="C70" s="10">
+        <v>8</v>
+      </c>
+      <c r="D70" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B71" s="10">
+        <v>7</v>
+      </c>
+      <c r="C71" s="10">
+        <v>9</v>
+      </c>
+      <c r="D71" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B72" s="10">
+        <v>9</v>
+      </c>
+      <c r="D72" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B73" s="10">
+        <v>8</v>
+      </c>
+      <c r="D73" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B74" s="10">
+        <v>9</v>
+      </c>
+      <c r="D74" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B75" s="10">
+        <v>8</v>
+      </c>
+      <c r="D75" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B76" s="10">
+        <v>8</v>
+      </c>
+      <c r="D76" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B77" s="10">
+        <v>9</v>
+      </c>
+      <c r="D77" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B78" s="10">
+        <v>8</v>
+      </c>
+      <c r="D78" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B79" s="10">
+        <v>8</v>
+      </c>
+      <c r="D79" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B80" s="10">
+        <v>8</v>
+      </c>
+      <c r="D80" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B81" s="10">
+        <v>7</v>
+      </c>
+      <c r="D81" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B82" s="10">
+        <v>8</v>
+      </c>
+      <c r="D82" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B83" s="10">
+        <v>8</v>
+      </c>
+      <c r="D83" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B84" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B85" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B86" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B87" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B88" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B89" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B90" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B91" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B92" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B93" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B94" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B95" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B96" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B101" s="10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Moter_speed_and_seed_number/电机转速-挡板高度-出种数量.xlsx
+++ b/Data/Moter_speed_and_seed_number/电机转速-挡板高度-出种数量.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development-of-wheat-precision-seeding-control-system\Data\Moter_speed_and_seed_number\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185932CB-0AB1-4EC4-9921-A370439E917D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03E32D1-5399-4EBF-9F2E-AE1C221E0B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" tabRatio="728" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1F9063-FD8C-44AD-959D-83B64B45B67B}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C9"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1066,313 +1066,223 @@
       <c r="B4" s="9">
         <v>8</v>
       </c>
-      <c r="C4" s="9">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="9">
         <v>10</v>
       </c>
-      <c r="C5" s="9">
-        <v>11</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="9">
         <v>8</v>
       </c>
-      <c r="C6" s="9">
-        <v>10</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" s="9">
         <v>7</v>
       </c>
-      <c r="C7" s="9">
-        <v>11</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="9">
         <v>8</v>
       </c>
-      <c r="C8" s="9">
-        <v>12</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
         <v>8</v>
       </c>
-      <c r="C9" s="9">
-        <v>10</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
-        <v>13</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="9">
-        <v>14</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="9">
         <v>9</v>
       </c>
-      <c r="C12" s="9">
-        <v>12</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="9">
         <v>7</v>
       </c>
-      <c r="C13" s="9">
-        <v>10</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
         <v>7</v>
       </c>
-      <c r="C14" s="9">
-        <v>14</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
         <v>8</v>
       </c>
-      <c r="C15" s="9">
-        <v>10</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="9">
         <v>9</v>
       </c>
-      <c r="C16" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="9">
         <v>8</v>
       </c>
-      <c r="C17" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="9">
         <v>9</v>
       </c>
-      <c r="C18" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="9">
         <v>8</v>
       </c>
-      <c r="C19" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="9">
         <v>8</v>
       </c>
-      <c r="C20" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="9">
         <v>7</v>
       </c>
-      <c r="C21" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="9">
         <v>7</v>
       </c>
-      <c r="C22" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="9">
         <v>9</v>
       </c>
-      <c r="C23" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="9">
         <v>7</v>
       </c>
-      <c r="C24" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="9">
         <v>7</v>
       </c>
-      <c r="C25" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="9">
         <v>7</v>
       </c>
-      <c r="C26" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="9">
         <v>7</v>
       </c>
-      <c r="C27" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="9">
         <v>8</v>
       </c>
-      <c r="C28" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="9">
         <v>8</v>
       </c>
-      <c r="C29" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="9">
         <v>9</v>
       </c>
-      <c r="C30" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="9">
         <v>7</v>
       </c>
-      <c r="C31" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="9">
         <v>7</v>
       </c>
-      <c r="C32" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="9">
         <v>8</v>
       </c>
-      <c r="C33" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="9">
         <v>7</v>
       </c>
@@ -1656,7 +1566,7 @@
   <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1690,7 +1600,9 @@
       <c r="D2" s="9">
         <v>59</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4">
+        <v>58</v>
+      </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1703,7 +1615,12 @@
       <c r="C3" s="9">
         <v>14.9</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="D3" s="9">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4">
+        <v>15.1</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1716,6 +1633,12 @@
       <c r="C4" s="9">
         <v>8</v>
       </c>
+      <c r="D4" s="9">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="9">
@@ -1724,6 +1647,12 @@
       <c r="C5" s="9">
         <v>7</v>
       </c>
+      <c r="D5" s="9">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="9">
@@ -1732,6 +1661,12 @@
       <c r="C6" s="9">
         <v>6</v>
       </c>
+      <c r="D6" s="9">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" s="9">
@@ -1740,6 +1675,12 @@
       <c r="C7" s="9">
         <v>8</v>
       </c>
+      <c r="D7" s="9">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="9">
@@ -1748,6 +1689,12 @@
       <c r="C8" s="9">
         <v>7</v>
       </c>
+      <c r="D8" s="9">
+        <v>9</v>
+      </c>
+      <c r="E8" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
@@ -1756,6 +1703,12 @@
       <c r="C9" s="9">
         <v>9</v>
       </c>
+      <c r="D9" s="9">
+        <v>9</v>
+      </c>
+      <c r="E9" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="9">
@@ -1764,6 +1717,12 @@
       <c r="C10" s="9">
         <v>9</v>
       </c>
+      <c r="D10" s="9">
+        <v>6</v>
+      </c>
+      <c r="E10" s="9">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
@@ -1772,6 +1731,12 @@
       <c r="C11" s="9">
         <v>8</v>
       </c>
+      <c r="D11" s="9">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="9">
@@ -1780,6 +1745,12 @@
       <c r="C12" s="9">
         <v>9</v>
       </c>
+      <c r="D12" s="9">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="9">
@@ -1788,6 +1759,12 @@
       <c r="C13" s="9">
         <v>8</v>
       </c>
+      <c r="D13" s="9">
+        <v>6</v>
+      </c>
+      <c r="E13" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
@@ -1796,6 +1773,12 @@
       <c r="C14" s="9">
         <v>10</v>
       </c>
+      <c r="D14" s="9">
+        <v>5</v>
+      </c>
+      <c r="E14" s="9">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
@@ -1804,6 +1787,12 @@
       <c r="C15" s="9">
         <v>9</v>
       </c>
+      <c r="D15" s="9">
+        <v>9</v>
+      </c>
+      <c r="E15" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="9">
@@ -1812,997 +1801,1609 @@
       <c r="C16" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D16" s="9">
+        <v>6</v>
+      </c>
+      <c r="E16" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="9">
         <v>5</v>
       </c>
       <c r="C17" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D17" s="9">
+        <v>9</v>
+      </c>
+      <c r="E17" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="9">
         <v>6</v>
       </c>
       <c r="C18" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D18" s="9">
+        <v>7</v>
+      </c>
+      <c r="E18" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="9">
         <v>8</v>
       </c>
       <c r="C19" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="9">
+        <v>8</v>
+      </c>
+      <c r="E19" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="9">
         <v>7</v>
       </c>
       <c r="C20" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D20" s="9">
+        <v>10</v>
+      </c>
+      <c r="E20" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="9">
         <v>7</v>
       </c>
       <c r="C21" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D21" s="9">
+        <v>10</v>
+      </c>
+      <c r="E21" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="9">
         <v>8</v>
       </c>
       <c r="C22" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D22" s="9">
+        <v>7</v>
+      </c>
+      <c r="E22" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="9">
         <v>9</v>
       </c>
       <c r="C23" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D23" s="9">
+        <v>6</v>
+      </c>
+      <c r="E23" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="9">
         <v>6</v>
       </c>
       <c r="C24" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D24" s="9">
+        <v>7</v>
+      </c>
+      <c r="E24" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="9">
         <v>7</v>
       </c>
       <c r="C25" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D25" s="9">
+        <v>8</v>
+      </c>
+      <c r="E25" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="9">
         <v>6</v>
       </c>
       <c r="C26" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D26" s="9">
+        <v>7</v>
+      </c>
+      <c r="E26" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="9">
         <v>5</v>
       </c>
       <c r="C27" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D27" s="9">
+        <v>8</v>
+      </c>
+      <c r="E27" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="9">
         <v>6</v>
       </c>
       <c r="C28" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D28" s="9">
+        <v>7</v>
+      </c>
+      <c r="E28" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="9">
         <v>6</v>
       </c>
       <c r="C29" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D29" s="9">
+        <v>7</v>
+      </c>
+      <c r="E29" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="9">
         <v>7</v>
       </c>
       <c r="C30" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D30" s="9">
+        <v>9</v>
+      </c>
+      <c r="E30" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" s="9">
         <v>9</v>
       </c>
       <c r="C31" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D31" s="9">
+        <v>7</v>
+      </c>
+      <c r="E31" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="9">
         <v>8</v>
       </c>
       <c r="C32" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D32" s="9">
+        <v>6</v>
+      </c>
+      <c r="E32" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="9">
         <v>7</v>
       </c>
       <c r="C33" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D33" s="9">
+        <v>11</v>
+      </c>
+      <c r="E33" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="9">
         <v>5</v>
       </c>
       <c r="C34" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D34" s="9">
+        <v>7</v>
+      </c>
+      <c r="E34" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="9">
         <v>9</v>
       </c>
       <c r="C35" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D35" s="9">
+        <v>7</v>
+      </c>
+      <c r="E35" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="9">
         <v>8</v>
       </c>
       <c r="C36" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D36" s="9">
+        <v>8</v>
+      </c>
+      <c r="E36" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="9">
         <v>7</v>
       </c>
       <c r="C37" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D37" s="9">
+        <v>7</v>
+      </c>
+      <c r="E37" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="9">
         <v>7</v>
       </c>
       <c r="C38" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D38" s="9">
+        <v>9</v>
+      </c>
+      <c r="E38" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="9">
         <v>7</v>
       </c>
       <c r="C39" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D39" s="9">
+        <v>8</v>
+      </c>
+      <c r="E39" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="9">
         <v>6</v>
       </c>
       <c r="C40" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D40" s="9">
+        <v>8</v>
+      </c>
+      <c r="E40" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="9">
         <v>7</v>
       </c>
       <c r="C41" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D41" s="9">
+        <v>8</v>
+      </c>
+      <c r="E41" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="9">
         <v>6</v>
       </c>
       <c r="C42" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D42" s="9">
+        <v>9</v>
+      </c>
+      <c r="E42" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="9">
         <v>6</v>
       </c>
       <c r="C43" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D43" s="9">
+        <v>11</v>
+      </c>
+      <c r="E43" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="9">
         <v>6</v>
       </c>
       <c r="C44" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D44" s="9">
+        <v>8</v>
+      </c>
+      <c r="E44" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" s="9">
         <v>8</v>
       </c>
       <c r="C45" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D45" s="9">
+        <v>7</v>
+      </c>
+      <c r="E45" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46" s="9">
         <v>6</v>
       </c>
       <c r="C46" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D46" s="9">
+        <v>8</v>
+      </c>
+      <c r="E46" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47" s="9">
         <v>7</v>
       </c>
       <c r="C47" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D47" s="9">
+        <v>6</v>
+      </c>
+      <c r="E47" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48" s="9">
         <v>6</v>
       </c>
       <c r="C48" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D48" s="9">
+        <v>9</v>
+      </c>
+      <c r="E48" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" s="9">
         <v>7</v>
       </c>
       <c r="C49" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D49" s="9">
+        <v>7</v>
+      </c>
+      <c r="E49" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="9">
         <v>7</v>
       </c>
       <c r="C50" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D50" s="9">
+        <v>6</v>
+      </c>
+      <c r="E50" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="9">
         <v>7</v>
       </c>
       <c r="C51" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D51" s="9">
+        <v>12</v>
+      </c>
+      <c r="E51" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="9">
         <v>6</v>
       </c>
       <c r="C52" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D52" s="9">
+        <v>9</v>
+      </c>
+      <c r="E52" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" s="9">
         <v>8</v>
       </c>
       <c r="C53" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D53" s="9">
+        <v>9</v>
+      </c>
+      <c r="E53" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" s="9">
         <v>7</v>
       </c>
       <c r="C54" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D54" s="9">
+        <v>5</v>
+      </c>
+      <c r="E54" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" s="9">
         <v>9</v>
       </c>
       <c r="C55" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D55" s="9">
+        <v>7</v>
+      </c>
+      <c r="E55" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56" s="9">
         <v>7</v>
       </c>
       <c r="C56" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D56" s="9">
+        <v>9</v>
+      </c>
+      <c r="E56" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57" s="9">
         <v>9</v>
       </c>
       <c r="C57" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D57" s="9">
+        <v>9</v>
+      </c>
+      <c r="E57" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58" s="9">
         <v>7</v>
       </c>
       <c r="C58" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D58" s="9">
+        <v>6</v>
+      </c>
+      <c r="E58" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" s="9">
         <v>6</v>
       </c>
       <c r="C59" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D59" s="9">
+        <v>9</v>
+      </c>
+      <c r="E59" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60" s="9">
         <v>7</v>
       </c>
       <c r="C60" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D60" s="9">
+        <v>8</v>
+      </c>
+      <c r="E60" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61" s="9">
         <v>6</v>
       </c>
       <c r="C61" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D61" s="9">
+        <v>11</v>
+      </c>
+      <c r="E61" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62" s="9">
         <v>8</v>
       </c>
       <c r="C62" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D62" s="9">
+        <v>8</v>
+      </c>
+      <c r="E62" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" s="9">
         <v>8</v>
       </c>
       <c r="C63" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D63" s="9">
+        <v>7</v>
+      </c>
+      <c r="E63" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" s="9">
         <v>6</v>
       </c>
       <c r="C64" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D64" s="9">
+        <v>8</v>
+      </c>
+      <c r="E64" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" s="9">
         <v>9</v>
       </c>
       <c r="C65" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D65" s="9">
+        <v>8</v>
+      </c>
+      <c r="E65" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" s="9">
         <v>7</v>
       </c>
       <c r="C66" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D66" s="9">
+        <v>10</v>
+      </c>
+      <c r="E66" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67" s="9">
         <v>7</v>
       </c>
       <c r="C67" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D67" s="9">
+        <v>6</v>
+      </c>
+      <c r="E67" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" s="9">
         <v>7</v>
       </c>
       <c r="C68" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D68" s="9">
+        <v>8</v>
+      </c>
+      <c r="E68" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69" s="9">
         <v>8</v>
       </c>
       <c r="C69" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D69" s="9">
+        <v>6</v>
+      </c>
+      <c r="E69" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" s="9">
         <v>9</v>
       </c>
       <c r="C70" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D70" s="9">
+        <v>8</v>
+      </c>
+      <c r="E70" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71" s="9">
         <v>8</v>
       </c>
       <c r="C71" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D71" s="9">
+        <v>6</v>
+      </c>
+      <c r="E71" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72" s="9">
         <v>9</v>
       </c>
       <c r="C72" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D72" s="9">
+        <v>6</v>
+      </c>
+      <c r="E72" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" s="9">
         <v>8</v>
       </c>
       <c r="C73" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D73" s="9">
+        <v>7</v>
+      </c>
+      <c r="E73" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" s="9">
         <v>7</v>
       </c>
       <c r="C74" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D74" s="9">
+        <v>9</v>
+      </c>
+      <c r="E74" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" s="9">
         <v>8</v>
       </c>
       <c r="C75" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D75" s="9">
+        <v>7</v>
+      </c>
+      <c r="E75" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76" s="9">
         <v>7</v>
       </c>
       <c r="C76" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D76" s="9">
+        <v>7</v>
+      </c>
+      <c r="E76" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" s="9">
         <v>7</v>
       </c>
       <c r="C77" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D77" s="9">
+        <v>7</v>
+      </c>
+      <c r="E77" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78" s="9">
         <v>8</v>
       </c>
       <c r="C78" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D78" s="9">
+        <v>7</v>
+      </c>
+      <c r="E78" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79" s="9">
         <v>6</v>
       </c>
       <c r="C79" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D79" s="9">
+        <v>8</v>
+      </c>
+      <c r="E79" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80" s="9">
         <v>7</v>
       </c>
       <c r="C80" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D80" s="9">
+        <v>11</v>
+      </c>
+      <c r="E80" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="9">
         <v>7</v>
       </c>
       <c r="C81" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D81" s="9">
+        <v>8</v>
+      </c>
+      <c r="E81" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="9">
         <v>7</v>
       </c>
       <c r="C82" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D82" s="9">
+        <v>8</v>
+      </c>
+      <c r="E82" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="9">
         <v>7</v>
       </c>
       <c r="C83" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D83" s="9">
+        <v>9</v>
+      </c>
+      <c r="E83" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="9">
         <v>8</v>
       </c>
       <c r="C84" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D84" s="9">
+        <v>8</v>
+      </c>
+      <c r="E84" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="9">
         <v>9</v>
       </c>
       <c r="C85" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D85" s="9">
+        <v>11</v>
+      </c>
+      <c r="E85" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="9">
         <v>8</v>
       </c>
       <c r="C86" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D86" s="9">
+        <v>6</v>
+      </c>
+      <c r="E86" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="9">
         <v>8</v>
       </c>
       <c r="C87" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D87" s="9">
+        <v>10</v>
+      </c>
+      <c r="E87" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="9">
         <v>7</v>
       </c>
       <c r="C88" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D88" s="9">
+        <v>9</v>
+      </c>
+      <c r="E88" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="9">
         <v>8</v>
       </c>
       <c r="C89" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D89" s="9">
+        <v>8</v>
+      </c>
+      <c r="E89" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="9">
         <v>7</v>
       </c>
       <c r="C90" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D90" s="9">
+        <v>7</v>
+      </c>
+      <c r="E90" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="9">
         <v>7</v>
       </c>
       <c r="C91" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D91" s="9">
+        <v>8</v>
+      </c>
+      <c r="E91" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" s="9">
         <v>6</v>
       </c>
       <c r="C92" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D92" s="9">
+        <v>8</v>
+      </c>
+      <c r="E92" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93" s="9">
         <v>6</v>
       </c>
       <c r="C93" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D93" s="9">
+        <v>9</v>
+      </c>
+      <c r="E93" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B94" s="9">
         <v>6</v>
       </c>
       <c r="C94" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D94" s="9">
+        <v>8</v>
+      </c>
+      <c r="E94" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B95" s="9">
         <v>7</v>
       </c>
       <c r="C95" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D95" s="9">
+        <v>8</v>
+      </c>
+      <c r="E95" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B96" s="9">
         <v>7</v>
       </c>
       <c r="C96" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D96" s="9">
+        <v>8</v>
+      </c>
+      <c r="E96" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B97" s="9">
         <v>6</v>
       </c>
       <c r="C97" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D97" s="9">
+        <v>6</v>
+      </c>
+      <c r="E97" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B98" s="9">
         <v>7</v>
       </c>
       <c r="C98" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D98" s="9">
+        <v>6</v>
+      </c>
+      <c r="E98" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B99" s="9">
         <v>6</v>
       </c>
       <c r="C99" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D99" s="9">
+        <v>5</v>
+      </c>
+      <c r="E99" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B100" s="9">
         <v>8</v>
       </c>
       <c r="C100" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D100" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B101" s="9">
         <v>6</v>
       </c>
       <c r="C101" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D101" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B102" s="9">
         <v>6</v>
       </c>
       <c r="C102" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D102" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B103" s="9">
         <v>8</v>
       </c>
       <c r="C103" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D103" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B104" s="9">
         <v>6</v>
       </c>
       <c r="C104" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D104" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B105" s="9">
         <v>7</v>
       </c>
       <c r="C105" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D105" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B106" s="9">
         <v>7</v>
       </c>
       <c r="C106" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D106" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B107" s="9">
         <v>6</v>
       </c>
       <c r="C107" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D107" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B108" s="9">
         <v>8</v>
       </c>
       <c r="C108" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D108" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B109" s="9">
         <v>6</v>
       </c>
       <c r="C109" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D109" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B110" s="9">
         <v>6</v>
       </c>
       <c r="C110" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D110" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B111" s="9">
         <v>8</v>
       </c>
       <c r="C111" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D111" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B112" s="9">
         <v>7</v>
       </c>
       <c r="C112" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D112" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B113" s="9">
         <v>8</v>
       </c>
       <c r="C113" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D113" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B114" s="9">
         <v>6</v>
       </c>
       <c r="C114" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D114" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B115" s="9">
         <v>7</v>
       </c>
       <c r="C115" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D115" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B116" s="9">
         <v>7</v>
       </c>
       <c r="C116" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D116" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B117" s="9">
         <v>7</v>
       </c>
       <c r="C117" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D117" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B118" s="9">
         <v>5</v>
       </c>
       <c r="C118" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D118" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B119" s="9">
         <v>6</v>
       </c>
       <c r="C119" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D119" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B120" s="9">
         <v>6</v>
       </c>
       <c r="C120" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D120" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B121" s="9">
         <v>7</v>
       </c>
       <c r="C121" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D121" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B122" s="9">
         <v>8</v>
       </c>
       <c r="C122" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D122" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B123" s="9">
         <v>8</v>
       </c>
       <c r="C123" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D123" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B124" s="9">
         <v>7</v>
       </c>
       <c r="C124" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D124" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B125" s="9">
         <v>7</v>
       </c>
       <c r="C125" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D125" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B126" s="9">
         <v>5</v>
       </c>
       <c r="C126" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D126" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B127" s="9">
         <v>7</v>
       </c>
       <c r="C127" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D127" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B128" s="9">
         <v>7</v>
       </c>
       <c r="C128" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D128" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B129" s="9">
         <v>6</v>
       </c>
       <c r="C129" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D129" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B130" s="9">
         <v>7</v>
       </c>
       <c r="C130" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D130" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B131" s="9">
         <v>6</v>
       </c>
       <c r="C131" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D131" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B132" s="9">
         <v>7</v>
       </c>
       <c r="C132" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D132" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B133" s="9">
         <v>8</v>
       </c>
       <c r="C133" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D133" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B134" s="9">
         <v>7</v>
       </c>
       <c r="C134" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D134" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C135" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D135" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C136" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C137" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C138" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C139" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C140" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C141" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C142" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C143" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C144" s="9">
         <v>8</v>
       </c>

--- a/Data/Moter_speed_and_seed_number/电机转速-挡板高度-出种数量.xlsx
+++ b/Data/Moter_speed_and_seed_number/电机转速-挡板高度-出种数量.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development-of-wheat-precision-seeding-control-system\Data\Moter_speed_and_seed_number\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03E32D1-5399-4EBF-9F2E-AE1C221E0B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70A7C26-BA37-478A-B404-98B90942FAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" tabRatio="728" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22046" yWindow="-103" windowWidth="22149" windowHeight="11829" tabRatio="728" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="转速5rpm" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="15">
   <si>
     <r>
       <rPr>
@@ -121,6 +121,38 @@
   </si>
   <si>
     <t>挡板上边沿到种箱上边沿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.7mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.9cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.6mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -590,7 +622,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16.3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +634,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6" ht="16.3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="16.3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,19 +647,23 @@
       <c r="D2" s="3">
         <v>62</v>
       </c>
-      <c r="E2" s="7">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.3" x14ac:dyDescent="0.35">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -640,8 +676,20 @@
       <c r="D4" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8.65</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>5</v>
       </c>
@@ -651,8 +699,11 @@
       <c r="D5" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="K5" s="1">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>7</v>
       </c>
@@ -663,7 +714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -674,7 +725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -685,7 +736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -696,7 +747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -707,7 +758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -718,7 +769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>6</v>
       </c>
@@ -729,7 +780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>7</v>
       </c>
@@ -740,7 +791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>6</v>
       </c>
@@ -751,7 +802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>6</v>
       </c>
@@ -762,7 +813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>6</v>
       </c>
@@ -1009,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1F9063-FD8C-44AD-959D-83B64B45B67B}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1021,7 +1072,7 @@
     <col min="2" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1033,7 +1084,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1045,8 +1096,14 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1058,471 +1115,755 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C4" s="9">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9">
+        <v>7.75</v>
+      </c>
+      <c r="H4" s="9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C5" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C17" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C18" s="9">
+        <v>10</v>
+      </c>
+      <c r="I18" s="9">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C19" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C20" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C21" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C22" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C23" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C24" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C25" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C26" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C27" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C28" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C29" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C30" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C31" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C32" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C33" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C34" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C35" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C36" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C37" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C38" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C39" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C40" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C41" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C42" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C43" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C44" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C45" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C46" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C47" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C48" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C49" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C50" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C51" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C52" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C53" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C54" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C55" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C56" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C57" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C58" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C59" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C60" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C61" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C62" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C63" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C64" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C65" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C66" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C67" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C68" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C69" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C70" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C71" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C72" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C73" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B74" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C74" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B75" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C75" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B76" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C76" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B77" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C77" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B78" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C78" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B79" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C79" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B80" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C80" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C81" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C82" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C83" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C84" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C85" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C86" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C87" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C88" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C89" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C90" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C91" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B92" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C92" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96" s="9">
         <v>8</v>
       </c>
@@ -1563,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D2226B-6A43-4580-A085-E22962F56D5D}">
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1575,7 +1916,7 @@
     <col min="2" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1587,7 +1928,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1604,8 +1945,14 @@
         <v>58</v>
       </c>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1622,8 +1969,12 @@
         <v>15.1</v>
       </c>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1639,8 +1990,24 @@
       <c r="E4" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="9">
+        <v>7</v>
+      </c>
+      <c r="H4" s="9">
+        <v>7.68</v>
+      </c>
+      <c r="I4" s="9">
+        <v>7.83</v>
+      </c>
+      <c r="J4" s="9">
+        <v>8.48</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="9">
         <v>7</v>
       </c>
@@ -1654,7 +2021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="9">
         <v>6</v>
       </c>
@@ -1668,7 +2035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="9">
         <v>7</v>
       </c>
@@ -1682,7 +2049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="9">
         <v>6</v>
       </c>
@@ -1696,7 +2063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
         <v>8</v>
       </c>
@@ -1710,7 +2077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -1724,7 +2091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
         <v>7</v>
       </c>
@@ -1738,7 +2105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" s="9">
         <v>7</v>
       </c>
@@ -1752,7 +2119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="9">
         <v>7</v>
       </c>
@@ -1766,7 +2133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
         <v>7</v>
       </c>
@@ -1780,7 +2147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
         <v>8</v>
       </c>
@@ -1794,7 +2161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16" s="9">
         <v>6</v>
       </c>
@@ -3539,10 +3906,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4704FFC-B0E3-4E69-B52B-C37EFEA785FA}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3551,7 +3918,7 @@
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -3566,7 +3933,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3583,8 +3950,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -3601,8 +3974,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -3616,11 +3993,21 @@
         <v>7</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F4" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G4" s="4">
+        <v>8.16</v>
+      </c>
+      <c r="H4" s="4">
+        <v>7.72</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="5">
         <v>8</v>
       </c>
@@ -3631,7 +4018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
         <v>8</v>
       </c>
@@ -3642,7 +4029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>9</v>
       </c>
@@ -3653,7 +4040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
         <v>9</v>
       </c>
@@ -3664,7 +4051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="5">
         <v>10</v>
       </c>
@@ -3675,7 +4062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10" s="5">
         <v>10</v>
       </c>
@@ -3686,7 +4073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>10</v>
       </c>
@@ -3697,7 +4084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>10</v>
       </c>
@@ -3708,7 +4095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>9</v>
       </c>
@@ -3719,7 +4106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>8</v>
       </c>
@@ -3730,7 +4117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
         <v>10</v>
       </c>
@@ -3741,7 +4128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" s="5">
         <v>10</v>
       </c>
@@ -3950,10 +4337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5233E3-5A2B-482F-ACAE-1EEE4692C164}">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3962,7 +4349,7 @@
     <col min="2" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -3974,7 +4361,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3986,8 +4373,14 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -3999,8 +4392,12 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -4010,10 +4407,18 @@
       <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E4" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="9">
         <v>6</v>
       </c>
@@ -4021,7 +4426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="9">
         <v>8</v>
       </c>
@@ -4029,7 +4434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9">
         <v>6</v>
       </c>
@@ -4037,7 +4442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="9">
         <v>8</v>
       </c>
@@ -4045,7 +4450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
         <v>7</v>
       </c>
@@ -4053,7 +4458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -4061,7 +4466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
         <v>7</v>
       </c>
@@ -4069,7 +4474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="9">
         <v>7</v>
       </c>
@@ -4077,7 +4482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="9">
         <v>9</v>
       </c>
@@ -4085,7 +4490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
         <v>7</v>
       </c>
@@ -4093,7 +4498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
         <v>8</v>
       </c>
@@ -4101,7 +4506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" s="9">
         <v>7</v>
       </c>
@@ -4606,10 +5011,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906CCFEC-4289-465F-923F-55BF229980DF}">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -4618,7 +5023,7 @@
     <col min="2" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -4630,7 +5035,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -4645,8 +5050,14 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -4655,8 +5066,12 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -4669,8 +5084,21 @@
       <c r="D4" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" s="9">
+        <v>7.97</v>
+      </c>
+      <c r="G4" s="9">
+        <v>7.12</v>
+      </c>
+      <c r="H4" s="9">
+        <v>7.87</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="9">
         <v>9</v>
       </c>
@@ -4681,7 +5109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="9">
         <v>7</v>
       </c>
@@ -4692,7 +5120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="9">
         <v>9</v>
       </c>
@@ -4703,7 +5131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="9">
         <v>9</v>
       </c>
@@ -4714,7 +5142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
         <v>7</v>
       </c>
@@ -4725,7 +5153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="9">
         <v>8</v>
       </c>
@@ -4736,7 +5164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
         <v>7</v>
       </c>
@@ -4747,7 +5175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" s="9">
         <v>8</v>
       </c>
@@ -4758,7 +5186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9">
         <v>6</v>
       </c>
@@ -4769,7 +5197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
         <v>8</v>
       </c>
@@ -4780,7 +5208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
         <v>7</v>
       </c>
@@ -4791,7 +5219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="9">
         <v>8</v>
       </c>
@@ -5557,10 +5985,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9ACFCE-4CDE-4CE7-8762-8B168A0FE3C1}">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -5569,7 +5997,7 @@
     <col min="2" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -5581,7 +6009,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -5593,16 +6021,26 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -5612,8 +6050,18 @@
       <c r="C4" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E4" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F4" s="9">
+        <v>7.77</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="9">
         <v>9</v>
       </c>
@@ -5621,7 +6069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="9">
         <v>11</v>
       </c>
@@ -5629,7 +6077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9">
         <v>10</v>
       </c>
@@ -5637,7 +6085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="9">
         <v>8</v>
       </c>
@@ -5645,7 +6093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
         <v>10</v>
       </c>
@@ -5653,7 +6101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="9">
         <v>11</v>
       </c>
@@ -5661,7 +6109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -5669,7 +6117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -5677,7 +6125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -5685,7 +6133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -5693,7 +6141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
         <v>10</v>
       </c>
@@ -5701,7 +6149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" s="9">
         <v>9</v>
       </c>
@@ -6330,10 +6778,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5437896A-8C5C-427A-9305-13470FEEA7C6}">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -6342,7 +6790,7 @@
     <col min="2" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -6354,7 +6802,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -6367,8 +6815,14 @@
       <c r="D2" s="9"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -6377,8 +6831,12 @@
       <c r="D3" s="9"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -6389,10 +6847,18 @@
         <v>7</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E4" s="9">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="F4" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="9">
         <v>7</v>
@@ -6404,7 +6870,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>9</v>
       </c>
@@ -6412,7 +6878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="10">
         <v>7</v>
       </c>
@@ -6420,7 +6886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
         <v>7</v>
       </c>
@@ -6428,7 +6894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
         <v>9</v>
       </c>
@@ -6436,7 +6902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -6444,7 +6910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="10">
         <v>9</v>
       </c>
@@ -6452,7 +6918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="10">
         <v>9</v>
       </c>
@@ -6460,7 +6926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="10">
         <v>8</v>
       </c>
@@ -6468,7 +6934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="10">
         <v>8</v>
       </c>
@@ -6476,7 +6942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="10">
         <v>8</v>
       </c>
@@ -6484,7 +6950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>7</v>
       </c>
@@ -6999,15 +7465,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DC2137-0950-4DFB-8150-B63CE4CB2456}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -7016,7 +7483,7 @@
     <col min="2" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -7028,7 +7495,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -7040,8 +7507,14 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -7053,8 +7526,12 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -7064,8 +7541,18 @@
       <c r="C4" s="12">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" s="9">
+        <v>8.34</v>
+      </c>
+      <c r="G4" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="9">
         <v>7</v>
       </c>
@@ -7073,7 +7560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="9">
         <v>7</v>
       </c>
@@ -7081,7 +7568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="9">
         <v>9</v>
       </c>
@@ -7089,7 +7576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="9">
         <v>8</v>
       </c>
@@ -7097,7 +7584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
         <v>7</v>
       </c>
@@ -7105,7 +7592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -7113,7 +7600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
         <v>9</v>
       </c>
@@ -7121,7 +7608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -7129,7 +7616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9">
         <v>7</v>
       </c>
@@ -7137,7 +7624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
         <v>8</v>
       </c>
@@ -7145,7 +7632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
         <v>7</v>
       </c>
@@ -7153,7 +7640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="9">
         <v>9</v>
       </c>
@@ -7397,10 +7884,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9426BAA9-36A5-4DB2-A7FE-EE2A4715BF34}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -7409,7 +7896,7 @@
     <col min="2" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -7421,7 +7908,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -7433,8 +7920,14 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -7446,8 +7939,12 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -7457,8 +7954,18 @@
       <c r="C4" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" s="9">
+        <v>7</v>
+      </c>
+      <c r="G4" s="9">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="9">
         <v>7</v>
       </c>
@@ -7466,7 +7973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="9">
         <v>8</v>
       </c>
@@ -7474,7 +7981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="9">
         <v>8</v>
       </c>
@@ -7482,7 +7989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="9">
         <v>7</v>
       </c>
@@ -7490,7 +7997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -7498,7 +8005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="9">
         <v>5</v>
       </c>
@@ -7506,7 +8013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -7514,7 +8021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" s="9">
         <v>6</v>
       </c>
@@ -7522,7 +8029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9">
         <v>7</v>
       </c>
@@ -7530,7 +8037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="9">
         <v>7</v>
       </c>
@@ -7538,7 +8045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
         <v>6</v>
       </c>
@@ -7546,7 +8053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="9">
         <v>7</v>
       </c>
@@ -8283,10 +8790,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73965851-85AD-4F1E-86F5-C93842E70905}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -8295,7 +8802,7 @@
     <col min="2" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -8307,7 +8814,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -8322,8 +8829,14 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -8338,8 +8851,12 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -8353,9 +8870,21 @@
         <v>11</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" s="9">
+        <v>8</v>
+      </c>
+      <c r="G4" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="H4" s="10">
+        <v>9.36</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="9">
         <v>9</v>
@@ -8369,7 +8898,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>6</v>
       </c>
@@ -8380,7 +8909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="10">
         <v>9</v>
       </c>
@@ -8391,7 +8920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
         <v>9</v>
       </c>
@@ -8402,7 +8931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
         <v>10</v>
       </c>
@@ -8413,7 +8942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
         <v>9</v>
       </c>
@@ -8424,7 +8953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" s="10">
         <v>8</v>
       </c>
@@ -8435,7 +8964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="10">
         <v>9</v>
       </c>
@@ -8446,7 +8975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="10">
         <v>8</v>
       </c>
@@ -8457,7 +8986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" s="10">
         <v>7</v>
       </c>
@@ -8468,7 +8997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="10">
         <v>8</v>
       </c>
@@ -8479,7 +9008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>7</v>
       </c>
